--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF33D8-13FD-42FC-8A21-AC0897085931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F00EC819-A586-4462-B833-AD73503C49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,12 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
   <si>
     <t>Current Price:</t>
+  </si>
+  <si>
+    <t>HKD</t>
   </si>
   <si>
     <t>Number of Shares:</t>
@@ -944,16 +947,21 @@
     <t>CN</t>
   </si>
   <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0806.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>VALUE PARTNERS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>C0008</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HKD</t>
@@ -2226,14 +2234,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
@@ -2318,6 +2318,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3573,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3587,28 +3595,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" s="189">
         <v>45636</v>
@@ -3616,7 +3624,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="190">
         <v>8</v>
@@ -3624,24 +3632,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C10" s="193">
         <v>1826710016</v>
@@ -3649,15 +3657,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="219">
         <v>45291</v>
@@ -3665,7 +3673,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="220">
         <v>1000</v>
@@ -3673,7 +3681,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3681,15 +3689,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3698,61 +3706,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3801,7 +3809,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="149">
         <v>514856</v>
@@ -3809,12 +3817,8 @@
       <c r="D25" s="149">
         <v>584543</v>
       </c>
-      <c r="E25" s="149">
-        <v>1281649</v>
-      </c>
-      <c r="F25" s="149">
-        <v>2561449</v>
-      </c>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
       <c r="G25" s="149"/>
       <c r="H25" s="149"/>
       <c r="I25" s="149"/>
@@ -3825,7 +3829,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" s="150">
         <v>232905</v>
@@ -3833,12 +3837,8 @@
       <c r="D26" s="150">
         <v>252590</v>
       </c>
-      <c r="E26" s="150">
-        <v>772245</v>
-      </c>
-      <c r="F26" s="150">
-        <v>1183731</v>
-      </c>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
       <c r="G26" s="150"/>
       <c r="H26" s="150"/>
       <c r="I26" s="150"/>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="150">
         <f>250848+7069+19250+113116</f>
@@ -3859,12 +3859,8 @@
         <f>330088+6978+20483+119776</f>
         <v>477325</v>
       </c>
-      <c r="E27" s="150">
-        <v>26149</v>
-      </c>
-      <c r="F27" s="150">
-        <v>30530</v>
-      </c>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
       <c r="G27" s="150"/>
       <c r="H27" s="150"/>
       <c r="I27" s="150"/>
@@ -3875,7 +3871,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3891,7 +3887,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29" s="150">
         <v>7447</v>
@@ -3911,7 +3907,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C30" s="150"/>
       <c r="D30" s="150"/>
@@ -3927,7 +3923,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3943,7 +3939,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3959,7 +3955,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -3975,7 +3971,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3991,7 +3987,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4007,7 +4003,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4023,7 +4019,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="217"/>
       <c r="D37" s="150"/>
@@ -4039,7 +4035,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4055,7 +4051,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="217"/>
       <c r="D39" s="150"/>
@@ -4071,7 +4067,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="217"/>
       <c r="D40" s="150"/>
@@ -4087,7 +4083,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4103,7 +4099,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4119,7 +4115,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4135,7 +4131,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C44" s="250">
         <v>0.5</v>
@@ -4160,23 +4156,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.30120481927710846</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.0481881362457773E-2</v>
+        <v>2.0606013976775698E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8192771084337352E-2</v>
+        <v>4.8484848484848492E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.20481927710843376</v>
+        <v>0.20606060606060608</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4209,21 +4205,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" s="59">
         <v>922361</v>
@@ -4235,7 +4231,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4245,7 +4241,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C50" s="59">
         <f>46927+74233+23318</f>
@@ -4259,7 +4255,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C51" s="59">
         <v>179879</v>
@@ -4271,7 +4267,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4281,7 +4277,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4292,7 +4288,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="C54" s="59">
         <v>27002</v>
@@ -4304,7 +4300,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4315,7 +4311,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4323,24 +4319,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58" s="59">
         <f>553</f>
@@ -4354,7 +4350,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4365,7 +4361,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4376,7 +4372,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="59">
         <v>1575035</v>
@@ -4389,7 +4385,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4400,7 +4396,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4411,7 +4407,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4421,7 +4417,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" s="59">
         <f>512565+1009</f>
@@ -4431,12 +4427,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" s="59">
         <v>187576</v>
@@ -4445,12 +4441,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4458,12 +4454,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C68" s="59">
         <f>149516+38681</f>
@@ -4477,7 +4473,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4488,7 +4484,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" s="59">
         <v>11428</v>
@@ -4500,7 +4496,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" s="59">
         <v>3593</v>
@@ -4513,7 +4509,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" s="247">
         <v>7278</v>
@@ -4525,7 +4521,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73" s="59">
         <v>1149</v>
@@ -4533,7 +4529,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74" s="59">
         <v>13306</v>
@@ -4541,19 +4537,19 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" s="83">
         <v>94912</v>
@@ -4561,7 +4557,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C78" s="59">
         <v>70891</v>
@@ -4569,7 +4565,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C79" s="59">
         <v>24307</v>
@@ -4577,19 +4573,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" s="83">
         <v>95903</v>
@@ -4597,7 +4593,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>3570139</v>
@@ -4605,19 +4601,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4625,10 +4621,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4636,7 +4632,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C89" s="271">
         <f>C24</f>
@@ -4644,10 +4640,10 @@
       </c>
       <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" s="89" t="s">
         <v>206</v>
-      </c>
-      <c r="F89" s="89" t="s">
-        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4657,19 +4653,19 @@
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="C90" s="272" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D90" s="272"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4687,7 +4683,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4708,7 +4704,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4729,7 +4725,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4747,7 +4743,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4768,7 +4764,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4786,7 +4782,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4804,7 +4800,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4826,27 +4822,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="0" priority="11">
+    <cfRule type="containsBlanks" dxfId="20" priority="11">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="20" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="19" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="3">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="18" priority="17">
+    <cfRule type="containsBlanks" dxfId="17" priority="17">
       <formula>LEN(TRIM(D34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4889,7 +4885,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4930,7 +4926,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
@@ -4942,15 +4938,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
@@ -4959,7 +4955,7 @@
       <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="283">
         <f>Inputs!C10</f>
@@ -4970,7 +4966,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" s="281">
         <f>Inputs!C6</f>
@@ -4979,11 +4975,11 @@
       <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3032.3386265599997</v>
+        <v>3014.0715263999996</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4991,7 +4987,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="185">
         <f>Inputs!C7</f>
@@ -5006,7 +5002,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
@@ -5017,7 +5013,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5029,7 +5025,7 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="133">
         <v>1</v>
@@ -5042,75 +5038,75 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5120,44 +5116,44 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.45236920614696147</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5165,7 +5161,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5176,58 +5172,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.84936150288826284</v>
+        <v>0.84424486732869497</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.4464238544369687E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-34.920997493039899</v>
+        <v>-34.710630038262551</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5236,61 +5232,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>-0.22487647031402955</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8072289156626505E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G28" s="273" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.56028152328195313</v>
+        <v>0.51467404955036977</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.74955389004548356</v>
+        <v>0.64229607709025649</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.6591547332728861</v>
+        <v>0.6054988818239645</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.65178599134389881</v>
+        <v>0.5585183279045709</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5298,21 +5294,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5322,7 +5318,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5333,14 +5329,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5350,7 +5346,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5360,14 +5356,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5377,7 +5373,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5392,14 +5388,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6299,27 +6295,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="16" priority="5">
+    <cfRule type="containsBlanks" dxfId="15" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="15" priority="3">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="14" priority="2">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="12" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6354,10 +6350,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6379,21 +6375,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6404,14 +6400,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6433,7 +6429,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6444,7 +6440,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6455,7 +6451,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6505,7 +6501,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6515,13 +6511,13 @@
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>584543</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
-        <v>1281649</v>
-      </c>
-      <c r="F6" s="200">
+        <v/>
+      </c>
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
-        <v>2561449</v>
+        <v/>
       </c>
       <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
@@ -6556,19 +6552,19 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-0.11921620821735956</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="92" t="str">
         <f t="shared" si="1"/>
-        <v>-0.54391334913069023</v>
-      </c>
-      <c r="E7" s="92">
+        <v/>
+      </c>
+      <c r="E7" s="92" t="str">
         <f t="shared" si="1"/>
-        <v>-0.49963907147868258</v>
+        <v/>
       </c>
       <c r="F7" s="92" t="str">
         <f t="shared" si="1"/>
@@ -6607,7 +6603,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6617,13 +6613,13 @@
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>252590</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
-        <v>772245</v>
-      </c>
-      <c r="F8" s="199">
+        <v/>
+      </c>
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
-        <v>1183731</v>
+        <v/>
       </c>
       <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
@@ -6658,7 +6654,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6668,13 +6664,13 @@
         <f t="shared" si="2"/>
         <v>331953</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
-        <v>509404</v>
-      </c>
-      <c r="F9" s="151">
+        <v/>
+      </c>
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
-        <v>1377718</v>
+        <v/>
       </c>
       <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
@@ -6709,7 +6705,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6719,13 +6715,13 @@
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>477325</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
-        <v>26149</v>
-      </c>
-      <c r="F10" s="199">
+        <v/>
+      </c>
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
-        <v>30530</v>
+        <v/>
       </c>
       <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
@@ -6760,7 +6756,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6811,7 +6807,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6862,7 +6858,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6872,13 +6868,13 @@
         <f t="shared" si="3"/>
         <v>-0.24869342375154607</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
-        <v>0.377057213012299</v>
-      </c>
-      <c r="F13" s="229">
+        <v/>
+      </c>
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
-        <v>0.52594761793031986</v>
+        <v/>
       </c>
       <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
@@ -6913,7 +6909,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6923,13 +6919,13 @@
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-145372</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
-        <v>483255</v>
-      </c>
-      <c r="F14" s="230">
+        <v/>
+      </c>
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
-        <v>1347188</v>
+        <v/>
       </c>
       <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
@@ -6964,7 +6960,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6972,11 +6968,11 @@
       </c>
       <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v>Turn</v>
-      </c>
-      <c r="E15" s="232">
+        <v/>
+      </c>
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
-        <v>-0.6412861456604424</v>
+        <v/>
       </c>
       <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
@@ -7015,7 +7011,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7066,7 +7062,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7117,7 +7113,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7168,7 +7164,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7219,7 +7215,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7229,13 +7225,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="152">
+        <v/>
+      </c>
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
@@ -7270,7 +7266,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7321,7 +7317,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7331,13 +7327,13 @@
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-150665</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
-        <v>483255</v>
-      </c>
-      <c r="F22" s="161">
+        <v/>
+      </c>
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
-        <v>1347188</v>
+        <v/>
       </c>
       <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
@@ -7372,7 +7368,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7382,13 +7378,13 @@
         <f t="shared" si="9"/>
         <v>-0.19331127051388863</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
-        <v>0.28279290975922428</v>
-      </c>
-      <c r="F23" s="153">
+        <v/>
+      </c>
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
-        <v>0.39446071344773992</v>
+        <v/>
       </c>
       <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
@@ -7423,7 +7419,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7433,13 +7429,13 @@
         <f>IF(D6="","",D22*(1-Fin_Analysis!$I$84))</f>
         <v>-112998.75</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="77" t="str">
         <f>IF(E6="","",E22*(1-Fin_Analysis!$I$84))</f>
-        <v>362441.25</v>
-      </c>
-      <c r="F24" s="77">
+        <v/>
+      </c>
+      <c r="F24" s="77" t="str">
         <f>IF(F6="","",F22*(1-Fin_Analysis!$I$84))</f>
-        <v>1010391</v>
+        <v/>
       </c>
       <c r="G24" s="77" t="str">
         <f>IF(G6="","",G22*(1-Fin_Analysis!$I$84))</f>
@@ -7474,7 +7470,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7482,11 +7478,11 @@
       </c>
       <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
-        <v>Turn</v>
-      </c>
-      <c r="E25" s="233">
+        <v/>
+      </c>
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
-        <v>-0.6412861456604424</v>
+        <v/>
       </c>
       <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
@@ -7525,7 +7521,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7576,7 +7572,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7627,7 +7623,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7678,7 +7674,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7729,7 +7725,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7780,7 +7776,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7831,7 +7827,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7882,7 +7878,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7933,7 +7929,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7984,7 +7980,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8035,7 +8031,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8086,7 +8082,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8137,7 +8133,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8188,7 +8184,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8239,7 +8235,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8249,9 +8245,9 @@
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="155" t="e">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
@@ -8290,7 +8286,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8308,7 +8304,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8318,13 +8314,13 @@
         <f t="shared" si="34"/>
         <v>0.43211534480782421</v>
       </c>
-      <c r="E42" s="156">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
-        <v>0.60254016505299035</v>
-      </c>
-      <c r="F42" s="156">
+        <v/>
+      </c>
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
-        <v>0.46213334717966276</v>
+        <v/>
       </c>
       <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
@@ -8359,7 +8355,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8369,13 +8365,13 @@
         <f t="shared" si="35"/>
         <v>0.81657807894372181</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
-        <v>2.0402621934710673E-2</v>
-      </c>
-      <c r="F43" s="153">
+        <v/>
+      </c>
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
-        <v>1.1919034890017331E-2</v>
+        <v/>
       </c>
       <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
@@ -8410,7 +8406,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8420,13 +8416,13 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="153">
+        <v/>
+      </c>
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
@@ -8461,7 +8457,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8471,13 +8467,13 @@
         <f t="shared" si="37"/>
         <v>9.0549369336387579E-3</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="153">
+        <v/>
+      </c>
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
@@ -8512,7 +8508,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8522,13 +8518,13 @@
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="153">
+        <v/>
+      </c>
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
@@ -8563,7 +8559,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8573,13 +8569,13 @@
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="153">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
+        <v/>
+      </c>
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
@@ -8614,7 +8610,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8624,13 +8620,13 @@
         <f t="shared" si="40"/>
         <v>-0.25774836068518486</v>
       </c>
-      <c r="E48" s="153">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
-        <v>0.377057213012299</v>
-      </c>
-      <c r="F48" s="153">
+        <v/>
+      </c>
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
-        <v>0.52594761793031986</v>
+        <v/>
       </c>
       <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
@@ -8665,7 +8661,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8683,7 +8679,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8734,7 +8730,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8785,7 +8781,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8802,7 +8798,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8852,7 +8848,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8902,7 +8898,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8914,11 +8910,11 @@
       </c>
       <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
-        <v>-</v>
+        <v/>
       </c>
       <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
-        <v>-</v>
+        <v/>
       </c>
       <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
@@ -8952,7 +8948,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10256,22 +10252,22 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="10" priority="3">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10292,8 +10288,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100:H100"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10311,7 +10307,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10321,12 +10317,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10340,7 +10336,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10350,7 +10346,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10368,10 +10364,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10381,7 +10377,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10395,7 +10391,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10406,7 +10402,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10418,7 +10414,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10436,7 +10432,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10455,32 +10451,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10497,7 +10493,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10508,7 +10504,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10525,7 +10521,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10536,7 +10532,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10553,7 +10549,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10564,7 +10560,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10581,7 +10577,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10592,7 +10588,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10609,7 +10605,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10619,7 +10615,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10641,7 +10637,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10663,7 +10659,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10684,7 +10680,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10709,7 +10705,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10736,7 +10732,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10757,7 +10753,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10774,7 +10770,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10786,13 +10782,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10814,7 +10810,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10834,7 +10830,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10843,7 +10839,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10863,7 +10859,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10876,7 +10872,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10896,7 +10892,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10909,7 +10905,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10926,7 +10922,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="206">
         <f>Inputs!C77</f>
@@ -10942,7 +10938,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10951,7 +10947,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10967,7 +10963,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10977,7 +10973,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10994,7 +10990,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11004,7 +11000,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11021,7 +11017,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11031,7 +11027,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11051,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11061,7 +11057,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11078,7 +11074,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11088,7 +11084,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11114,7 +11110,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11141,7 +11137,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11168,7 +11164,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11189,7 +11185,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11210,7 +11206,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11231,7 +11227,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11252,7 +11248,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11269,7 +11265,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11287,7 +11283,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11306,7 +11302,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11325,7 +11321,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11342,7 +11338,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11355,7 +11351,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11372,7 +11368,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11385,7 +11381,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11402,7 +11398,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11412,7 +11408,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11429,7 +11425,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11445,14 +11441,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11464,12 +11460,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11499,7 +11495,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11510,7 +11506,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="284">
@@ -11525,7 +11521,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="283">
@@ -11536,12 +11532,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="283">
@@ -11565,11 +11561,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11579,7 +11575,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11600,7 +11596,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11621,7 +11617,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11642,7 +11638,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11657,7 +11653,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11688,11 +11684,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11702,7 +11698,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11723,7 +11719,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11738,7 +11734,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11760,7 +11756,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C72" s="271">
         <f>Data!C5</f>
@@ -11768,15 +11764,15 @@
       </c>
       <c r="D72" s="271"/>
       <c r="E72" s="285" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F72" s="285"/>
       <c r="H72" s="285" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11785,22 +11781,22 @@
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="C73" s="272" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D73" s="272"/>
       <c r="E73" s="286" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F73" s="272"/>
       <c r="H73" s="286" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11821,7 +11817,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11851,7 +11847,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11872,7 +11868,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11902,7 +11898,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11932,7 +11928,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11963,7 +11959,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11990,12 +11986,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12025,7 +12021,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12055,7 +12051,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12085,7 +12081,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12106,7 +12102,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12137,7 +12133,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12158,28 +12154,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8636066315096239E-2</v>
+        <v>-2.8809618232157427E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8636066315096239E-2</v>
+        <v>-2.8809618232157427E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8636066315096239E-2</v>
+        <v>-2.8809618232157427E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12209,11 +12205,11 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.30120481927710846</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
@@ -12223,7 +12219,7 @@
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8072289156626505E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12240,27 +12236,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E92" s="285" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F92" s="285"/>
       <c r="G92" s="87"/>
       <c r="H92" s="285" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I92" s="285"/>
       <c r="K92" s="24"/>
@@ -12272,31 +12268,31 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.57095097964177699</v>
+        <v>-0.67887206210499773</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.57095097964177699</v>
+        <v>-0.67887206210499773</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12307,18 +12303,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.45570295120981846</v>
+        <v>0.5426159650982687</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12337,51 +12333,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-518536.37913661043</v>
+        <v>-616550.0603953636</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.28386354407365905</v>
+        <v>-0.33751939552258065</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.28386354407365905</v>
+        <v>-0.33751939552258065</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.36769322740912286</v>
+        <v>-0.46096089084845088</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12399,7 +12395,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12420,31 +12416,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1343756.5208633896</v>
+        <v>1245742.8396046362</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.56028152328195313</v>
+        <v>0.51467404955036977</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.58269379186640946</v>
+        <v>0.52903794041748786</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.6591547332728861</v>
+        <v>0.6054988818239645</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.73561567467936273</v>
+        <v>0.68195982323044113</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.65178599134389881</v>
+        <v>0.5585183279045709</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12454,38 +12450,38 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>413868.38223916152</v>
+        <v>492802.58347276482</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -12497,15 +12493,15 @@
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.11328245277414671</v>
+        <v>0.13488801702414402</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.22656490554829342</v>
+        <v>0.26977603404828804</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.29347333631922146</v>
+        <v>0.36844164404810098</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12515,58 +12511,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>532206.29293169477</v>
+        <v>483199.45230231818</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.28014076164097657</v>
+        <v>0.25733702477518489</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.29134689593320473</v>
+        <v>0.26451897020874393</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.38621859302351641</v>
+        <v>0.37019344942405424</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.48109029011382809</v>
+        <v>0.47586792863936456</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.47262966383156013</v>
+        <v>0.46347998597633594</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12575,7 +12571,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12599,32 +12595,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C108">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(C108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 H74:H82 C86 C88">
-    <cfRule type="containsBlanks" dxfId="6" priority="11">
+    <cfRule type="containsBlanks" dxfId="5" priority="11">
       <formula>LEN(TRIM(C74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(E88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(F84))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsBlanks" dxfId="2" priority="10">
+    <cfRule type="containsBlanks" dxfId="1" priority="10">
       <formula>LEN(TRIM(H88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="containsBlanks" dxfId="1" priority="15">
+    <cfRule type="containsBlanks" dxfId="0" priority="15">
       <formula>LEN(TRIM(I84))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F00EC819-A586-4462-B833-AD73503C49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95D9A1F-F80A-4AAF-A42C-29E0FEDD5B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -952,6 +952,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3581,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3607,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3611,7 +3615,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3644,7 +3648,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4160,19 +4164,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.30303030303030304</v>
+        <v>0.3048780487804878</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.0606013976775698E-2</v>
+        <v>2.0731660403463355E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8484848484848492E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.20606060606060608</v>
+        <v>0.20731707317073172</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4938,10 +4942,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4979,7 +4983,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3014.0715263999996</v>
+        <v>2995.8044262399999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5049,7 +5053,7 @@
         <v>176</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>183</v>
@@ -5060,7 +5064,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>190</v>
@@ -5087,7 +5091,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>182</v>
@@ -5195,7 +5199,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.84424486732869497</v>
+        <v>0.83912823176912721</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5211,7 +5215,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-34.710630038262551</v>
+        <v>-34.500262583485195</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5247,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8181818181818181E-2</v>
+        <v>1.8292682926829267E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5273,20 +5277,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.51467404955036977</v>
+        <v>0.51493341960725336</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.64229607709025649</v>
+        <v>0.6427753292708509</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.6054988818239645</v>
+        <v>0.60580402306735692</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.5585183279045709</v>
+        <v>0.55893506893117473</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5321,8 +5325,8 @@
         <v>226</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6348,12 +6352,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8779,118 +8783,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>5.0735797353543811E-2</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-1.0558671445377692</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8898,107 +8903,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-6.4320818110365441E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>121</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-1.0558671445377692</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-3.5130919589818468E-2</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-6.4320818110365441E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>-3.5130919589818468E-2</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>13.425836564396494</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9566,7 +9618,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10249,6 +10303,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12158,17 +12213,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8809618232157427E-2</v>
+        <v>-2.8985286636012048E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8809618232157427E-2</v>
+        <v>-2.8985286636012048E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8809618232157427E-2</v>
+        <v>-2.8985286636012048E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12209,7 +12264,7 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.30303030303030304</v>
+        <v>0.3048780487804878</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
@@ -12219,7 +12274,7 @@
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8181818181818181E-2</v>
+        <v>1.8292682926829267E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12279,14 +12334,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.67887206210499773</v>
+        <v>-0.67825831407189752</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.67887206210499773</v>
+        <v>-0.67825831407189752</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12314,7 +12369,7 @@
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.5426159650982687</v>
+        <v>0.54291144318160045</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12357,21 +12412,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-616550.0603953636</v>
+        <v>-615992.65582976385</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.33751939552258065</v>
+        <v>-0.33721425427918816</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.33751939552258065</v>
+        <v>-0.33721425427918816</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.46096089084845088</v>
+        <v>-0.46054414982184699</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12420,27 +12475,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1245742.8396046362</v>
+        <v>1246300.2441702359</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.51467404955036977</v>
+        <v>0.51493341960725336</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.52903794041748786</v>
+        <v>0.52934308166088029</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.6054988818239645</v>
+        <v>0.60580402306735692</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.68195982323044113</v>
+        <v>0.68226496447383356</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.5585183279045709</v>
+        <v>0.55893506893117473</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12481,7 +12536,7 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>492802.58347276482</v>
+        <v>493070.93599497469</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -12493,15 +12548,15 @@
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.13488801702414402</v>
+        <v>0.13496146943855555</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.26977603404828804</v>
+        <v>0.26992293887711111</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.36844164404810098</v>
+        <v>0.36864227660925908</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12542,27 +12597,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>483199.45230231818</v>
+        <v>483478.154585118</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.25733702477518489</v>
+        <v>0.25746670980362668</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.26451897020874393</v>
+        <v>0.26467154083044014</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.37019344942405424</v>
+        <v>0.37038274625295625</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.47586792863936456</v>
+        <v>0.4760939516754723</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.46347998597633594</v>
+        <v>0.4637886727702169</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95D9A1F-F80A-4AAF-A42C-29E0FEDD5B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82378AB2-FF5D-4C2A-8CF1-1D9727E6C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10343,8 +10343,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12435,7 +12435,7 @@
         <v>145</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12474,7 +12474,7 @@
         <v>115</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
+        <f>C97+C98+$C$99</f>
         <v>1246300.2441702359</v>
       </c>
       <c r="D100" s="109">
@@ -12482,7 +12482,7 @@
         <v>0.51493341960725336</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
+        <f>MAX(E97+H98+E99,0)</f>
         <v>0.52934308166088029</v>
       </c>
       <c r="F100" s="109">
@@ -12494,7 +12494,7 @@
         <v>0.68226496447383356</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
+        <f>MAX(I97+H98+H99,0)</f>
         <v>0.55893506893117473</v>
       </c>
       <c r="K100" s="24"/>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82378AB2-FF5D-4C2A-8CF1-1D9727E6C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A200D5C2-A29B-4BF2-958F-BB7CF22F6840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4164,19 +4164,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.3048780487804878</v>
+        <v>0.30864197530864196</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.0731660403463355E-2</v>
+        <v>2.0987606828197468E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.878048780487805E-2</v>
+        <v>4.9382716049382713E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.20731707317073172</v>
+        <v>0.20987654320987653</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>2995.8044262399999</v>
+        <v>2959.27022592</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.83912823176912721</v>
+        <v>0.82889496064999157</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-34.500262583485195</v>
+        <v>-34.079527673930507</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8292682926829267E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5277,20 +5277,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.51493341960725336</v>
+        <v>0.51546118575213584</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.6427753292708509</v>
+        <v>0.64375051152133067</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.60580402306735692</v>
+        <v>0.60642492441427742</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.55893506893117473</v>
+        <v>0.55978305349680935</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12213,17 +12213,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8985286636012048E-2</v>
+        <v>-2.9343129680901081E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8985286636012048E-2</v>
+        <v>-2.9343129680901081E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8985286636012048E-2</v>
+        <v>-2.9343129680901081E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.3048780487804878</v>
+        <v>0.30864197530864196</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
@@ -12274,7 +12274,7 @@
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8292682926829267E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12334,14 +12334,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.67825831407189752</v>
+        <v>-0.67700945968504056</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.67825831407189752</v>
+        <v>-0.67700945968504056</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.54291144318160045</v>
+        <v>0.54351374115115558</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12412,21 +12412,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-615992.65582976385</v>
+        <v>-614858.44912039628</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.33721425427918816</v>
+        <v>-0.33659335293226766</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.33721425427918816</v>
+        <v>-0.33659335293226766</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.46054414982184699</v>
+        <v>-0.45969616525621237</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12475,27 +12475,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1246300.2441702359</v>
+        <v>1247434.4508796036</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.51493341960725336</v>
+        <v>0.51546118575213584</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.52934308166088029</v>
+        <v>0.52996398300780079</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.60580402306735692</v>
+        <v>0.60642492441427742</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.68226496447383356</v>
+        <v>0.68288586582075417</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.55893506893117473</v>
+        <v>0.55978305349680935</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>493070.93599497469</v>
+        <v>493617.94163894496</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -12548,15 +12548,15 @@
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.13496146943855555</v>
+        <v>0.13511119370764565</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.26992293887711111</v>
+        <v>0.27022238741529131</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.36864227660925908</v>
+        <v>0.36905124292868818</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12597,27 +12597,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>483478.154585118</v>
+        <v>484045.25793980173</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.25746670980362668</v>
+        <v>0.25773059287606792</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.26467154083044014</v>
+        <v>0.26498199150390039</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.37038274625295625</v>
+        <v>0.37076805906096155</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.4760939516754723</v>
+        <v>0.47655412661802277</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.4637886727702169</v>
+        <v>0.46441714821274876</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A200D5C2-A29B-4BF2-958F-BB7CF22F6840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D10B3F6-59C5-4795-922F-F7C10A7C1C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4164,19 +4164,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.30864197530864196</v>
+        <v>0.30120481927710846</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.0987606828197468E-2</v>
+        <v>2.0481881362457773E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9382716049382713E-2</v>
+        <v>4.8192771084337352E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.20987654320987653</v>
+        <v>0.20481927710843376</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>2959.27022592</v>
+        <v>3032.3386265599997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5078,10 +5078,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5128,7 +5128,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.82889496064999157</v>
+        <v>0.84936150288826284</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-34.079527673930507</v>
+        <v>-34.920997493039899</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8518518518518517E-2</v>
+        <v>1.8072289156626505E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5277,20 +5277,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.51546118575213584</v>
+        <v>0.53933989201161325</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.64375051152133067</v>
+        <v>0.70056156423936955</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.60642492441427742</v>
+        <v>0.63451752001366268</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.55978305349680935</v>
+        <v>0.60918396890379967</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12213,17 +12213,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.9343129680901081E-2</v>
+        <v>-2.8636066315096239E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.9343129680901081E-2</v>
+        <v>-2.8636066315096239E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.9343129680901081E-2</v>
+        <v>-2.8636066315096239E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.30864197530864196</v>
+        <v>0.30120481927710846</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
@@ -12274,7 +12274,7 @@
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8518518518518517E-2</v>
+        <v>1.8072289156626505E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12323,7 +12323,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12334,14 +12334,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.67700945968504056</v>
+        <v>-0.62050521561068606</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.67700945968504056</v>
+        <v>-0.62050521561068606</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.54351374115115558</v>
+        <v>0.49525452810727449</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12412,21 +12412,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-614858.44912039628</v>
+        <v>-563541.42336356163</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.33659335293226766</v>
+        <v>-0.30850075733288235</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.33659335293226766</v>
+        <v>-0.30850075733288235</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.45969616525621237</v>
+        <v>-0.410295249849222</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12475,27 +12475,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1247434.4508796036</v>
+        <v>1298751.4766364382</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.51546118575213584</v>
+        <v>0.53933989201161325</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.52996398300780079</v>
+        <v>0.55805657860718605</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.60642492441427742</v>
+        <v>0.63451752001366268</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.68288586582075417</v>
+        <v>0.71097846142013932</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.55978305349680935</v>
+        <v>0.60918396890379967</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>493617.94163894496</v>
+        <v>449789.03428256058</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -12548,15 +12548,15 @@
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.13511119370764565</v>
+        <v>0.12311451471303494</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.27022238741529131</v>
+        <v>0.24622902942606989</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.36905124292868818</v>
+        <v>0.32747602314470103</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12597,27 +12597,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>484045.25793980173</v>
+        <v>509703.77081821905</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.25773059287606792</v>
+        <v>0.26966994600580663</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.26498199150390039</v>
+        <v>0.27902828930359302</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.37076805906096155</v>
+        <v>0.3788160173633488</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.47655412661802277</v>
+        <v>0.47860374542310458</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.46441714821274876</v>
+        <v>0.46832999602425035</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D10B3F6-59C5-4795-922F-F7C10A7C1C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D0A5F0F-9B80-4E31-895F-76083075BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4164,19 +4175,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.30120481927710846</v>
+        <v>0.31446540880503143</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.0481881362457773E-2</v>
+        <v>2.1383599409861571E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8192771084337352E-2</v>
+        <v>5.0314465408805027E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.20481927710843376</v>
+        <v>0.21383647798742139</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4942,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4983,7 +4994,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3032.3386265599997</v>
+        <v>2904.46892544</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5199,7 +5210,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.84936150288826284</v>
+        <v>0.81354505397128807</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5215,7 +5226,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-34.920997493039899</v>
+        <v>-33.448425309598456</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5247,7 +5258,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8072289156626505E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5277,20 +5288,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.53933989201161325</v>
+        <v>0.54103715893361903</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.70056156423936955</v>
+        <v>0.70361556623474475</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.63451752001366268</v>
+        <v>0.63651430462778713</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.60918396890379967</v>
+        <v>0.61183962281282156</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12213,17 +12224,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8636066315096239E-2</v>
+        <v>-2.9896773637144498E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8636066315096239E-2</v>
+        <v>-2.9896773637144498E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.8636066315096239E-2</v>
+        <v>-2.9896773637144498E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12264,7 +12275,7 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.30120481927710846</v>
+        <v>0.31446540880503143</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
@@ -12274,7 +12285,7 @@
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8072289156626505E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12334,14 +12345,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.62050521561068606</v>
+        <v>-0.61648896852517754</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.62050521561068606</v>
+        <v>-0.61648896852517754</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12369,7 +12380,7 @@
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.49525452810727449</v>
+        <v>0.49719279124997701</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12412,21 +12423,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-563541.42336356163</v>
+        <v>-559893.87690914597</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.30850075733288235</v>
+        <v>-0.30650397271875796</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.30850075733288235</v>
+        <v>-0.30650397271875796</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.410295249849222</v>
+        <v>-0.40763959594020022</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12475,27 +12486,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1298751.4766364382</v>
+        <v>1302399.0230908538</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.53933989201161325</v>
+        <v>0.54103715893361903</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.55805657860718605</v>
+        <v>0.5600533632213105</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.63451752001366268</v>
+        <v>0.63651430462778713</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.71097846142013932</v>
+        <v>0.71297524603426377</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.60918396890379967</v>
+        <v>0.61183962281282156</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12536,7 +12547,7 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>449789.03428256058</v>
+        <v>451549.36045357701</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -12548,15 +12559,15 @@
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.12311451471303494</v>
+        <v>0.12359634438375386</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.24622902942606989</v>
+        <v>0.24719268876750772</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.32747602314470103</v>
+        <v>0.32875765646606803</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12597,27 +12608,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>509703.77081821905</v>
+        <v>511527.54404542694</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.26966994600580663</v>
+        <v>0.27051857946680952</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.27902828930359302</v>
+        <v>0.28002668161065525</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.3788160173633488</v>
+        <v>0.38005532450577051</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.47860374542310458</v>
+        <v>0.48008396740088577</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.46832999602425035</v>
+        <v>0.47029863963944479</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D0A5F0F-9B80-4E31-895F-76083075BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80C3411-5A68-4AE3-AAF4-E70A25F308B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -452,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -552,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -920,10 +903,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -967,6 +946,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1540,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2180,6 +2195,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3610,28 +3635,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45636</v>
@@ -3647,24 +3672,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>1826710016</v>
@@ -3672,7 +3697,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3696,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3704,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3721,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3844,7 +3869,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>232905</v>
@@ -3864,7 +3889,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <f>250848+7069+19250+113116</f>
@@ -3886,7 +3911,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3902,7 +3927,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C29" s="150">
         <v>7447</v>
@@ -3922,7 +3947,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150"/>
       <c r="D30" s="150"/>
@@ -3938,7 +3963,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3954,7 +3979,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3970,7 +3995,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4002,7 +4027,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4018,7 +4043,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4050,7 +4075,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4098,7 +4123,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4114,7 +4139,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4130,7 +4155,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4146,7 +4171,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <v>0.5</v>
@@ -4171,23 +4196,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.31446540880503143</v>
+        <v>0.32051282051282048</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.1383599409861571E-2</v>
+        <v>2.1794822475435831E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0314465408805027E-2</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.21383647798742139</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4220,21 +4245,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59">
         <v>922361</v>
@@ -4246,7 +4271,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4256,7 +4281,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59">
         <f>46927+74233+23318</f>
@@ -4270,7 +4295,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59">
         <v>179879</v>
@@ -4282,7 +4307,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4292,7 +4317,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4303,7 +4328,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C54" s="59">
         <v>27002</v>
@@ -4315,7 +4340,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4326,7 +4351,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4334,24 +4359,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59">
         <f>553</f>
@@ -4365,7 +4390,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4376,7 +4401,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4387,7 +4412,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59">
         <v>1575035</v>
@@ -4400,7 +4425,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4411,7 +4436,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4422,7 +4447,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4432,7 +4457,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59">
         <f>512565+1009</f>
@@ -4442,12 +4467,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59">
         <v>187576</v>
@@ -4456,12 +4481,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4469,12 +4494,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59">
         <f>149516+38681</f>
@@ -4488,7 +4513,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4499,7 +4524,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59">
         <v>11428</v>
@@ -4511,7 +4536,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59">
         <v>3593</v>
@@ -4524,7 +4549,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247">
         <v>7278</v>
@@ -4536,7 +4561,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59">
         <v>1149</v>
@@ -4544,7 +4569,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59">
         <v>13306</v>
@@ -4552,13 +4577,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4572,7 +4597,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59">
         <v>70891</v>
@@ -4580,7 +4605,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59">
         <v>24307</v>
@@ -4588,19 +4613,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83">
         <v>95903</v>
@@ -4608,7 +4633,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59">
         <v>3570139</v>
@@ -4616,19 +4641,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4636,10 +4661,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4647,18 +4672,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="271">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4667,20 +4692,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4698,7 +4723,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4719,7 +4744,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4740,7 +4765,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4758,7 +4783,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4779,7 +4804,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4797,7 +4822,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4815,7 +4840,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4941,62 +4966,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0806.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>VALUE PARTNERS</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>1826710016</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="281">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45636</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="275">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>2904.46892544</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>2849.66762496</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5019,16 +5044,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5053,40 +5078,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5099,29 +5124,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5131,12 +5156,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5146,29 +5171,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.45236920614696147</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5176,7 +5201,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5187,58 +5212,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.81354505397128807</v>
+        <v>0.79819514729258445</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.4464238544369687E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-33.448425309598456</v>
+        <v>-32.817322945266412</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5247,18 +5272,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>-0.22487647031402955</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8867924528301886E-2</v>
+        <v>1.9230769230769228E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5268,62 +5293,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.54103715893361903</v>
+        <v>0.54180826353338019</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.70361556623474475</v>
+        <v>0.70500306454498685</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.63651430462778713</v>
-      </c>
-      <c r="G29" s="274">
+        <v>0.63742148650985908</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.61183962281282156</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>0.61304614308259731</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5333,25 +5358,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5361,7 +5386,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5371,14 +5396,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5388,7 +5413,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5403,14 +5428,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6363,12 +6388,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6395,16 +6420,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>200</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6422,7 +6447,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6455,7 +6480,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6466,7 +6491,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6618,7 +6643,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6669,7 +6694,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6720,7 +6745,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6771,7 +6796,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6822,7 +6847,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6873,7 +6898,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6924,7 +6949,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6975,7 +7000,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7026,7 +7051,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7077,7 +7102,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7128,7 +7153,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7179,7 +7204,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7230,7 +7255,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7281,7 +7306,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7332,7 +7357,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7383,7 +7408,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7434,7 +7459,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7485,7 +7510,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7536,7 +7561,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7689,7 +7714,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7740,7 +7765,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7842,7 +7867,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8046,7 +8071,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8097,7 +8122,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8148,7 +8173,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8199,7 +8224,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8250,7 +8275,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8301,7 +8326,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8319,7 +8344,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8370,7 +8395,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8421,7 +8446,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8472,7 +8497,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8523,7 +8548,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8574,7 +8599,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8625,7 +8650,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8676,7 +8701,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8693,50 +8718,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.28061826996286338</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>1.3459267140530522</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8745,11 +8770,11 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.28061826996286338</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8796,167 +8821,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>144</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>5.0735797353543811E-2</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-1.0558671445377692</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.94926420264645617</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8964,112 +8990,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-6.4320818110365441E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>118</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-1.0558671445377692</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-3.5130919589818468E-2</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-6.4320818110365441E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>-3.5130919589818468E-2</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>13.425836564396494</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>-3.0343916581399212E-2</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>-3.2429829762930802E-2</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9632,7 +9848,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10315,6 +10533,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10354,8 +10573,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10373,7 +10592,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10388,7 +10607,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10402,7 +10621,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10412,7 +10631,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10430,10 +10649,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10442,12 +10661,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>27</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>1893640.4</v>
       </c>
       <c r="E6" s="56">
@@ -10457,7 +10677,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10467,8 +10687,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>29</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10480,7 +10701,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10498,7 +10719,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10517,32 +10738,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10559,7 +10780,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10570,7 +10791,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10587,7 +10808,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10598,7 +10819,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10615,7 +10836,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10626,7 +10847,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10643,7 +10864,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10654,7 +10875,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10671,7 +10892,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10681,7 +10902,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10703,7 +10924,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10725,7 +10946,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10746,7 +10967,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10771,7 +10992,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10798,7 +11019,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10819,7 +11040,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10836,7 +11057,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10848,13 +11069,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10876,7 +11097,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10896,7 +11117,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10905,7 +11126,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10925,7 +11146,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10938,7 +11159,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10958,7 +11179,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11004,7 +11225,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11013,7 +11234,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11029,7 +11250,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11039,7 +11260,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11056,7 +11277,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11066,7 +11287,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11083,7 +11304,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11093,7 +11314,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11113,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11123,7 +11344,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11140,7 +11361,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11150,7 +11371,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11176,7 +11397,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11203,7 +11424,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11230,7 +11451,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11251,7 +11472,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11272,7 +11493,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11293,7 +11514,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11314,7 +11535,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11331,7 +11552,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11349,7 +11570,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11368,7 +11589,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11387,7 +11608,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11404,7 +11625,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11417,7 +11638,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11434,7 +11655,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11447,7 +11668,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11464,7 +11685,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11491,7 +11712,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11507,14 +11728,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11531,7 +11752,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11561,7 +11782,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11572,14 +11793,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>109653</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11587,30 +11808,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11627,11 +11848,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11641,7 +11862,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11662,7 +11883,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11683,7 +11904,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11704,7 +11925,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11719,7 +11940,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11750,11 +11971,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11764,7 +11985,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11785,7 +12006,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11800,7 +12021,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11822,21 +12043,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="271">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11846,23 +12067,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11883,7 +12104,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11913,7 +12134,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11934,7 +12155,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11964,7 +12185,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11994,7 +12215,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12025,7 +12246,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12052,12 +12273,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12087,7 +12308,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12117,7 +12338,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12147,7 +12368,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12168,7 +12389,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12199,7 +12420,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12220,28 +12441,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.9896773637144498E-2</v>
+        <v>-3.0471711591704968E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.9896773637144498E-2</v>
+        <v>-3.0471711591704968E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.9896773637144498E-2</v>
+        <v>-3.0471711591704968E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12271,11 +12492,11 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.31446540880503143</v>
+        <v>0.32051282051282048</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
@@ -12285,7 +12506,7 @@
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8867924528301886E-2</v>
+        <v>1.9230769230769228E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12302,29 +12523,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12341,24 +12562,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61648896852517754</v>
+        <v>-0.61466430172630271</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61648896852517754</v>
+        <v>-0.61466430172630271</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12369,18 +12590,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.49719279124997701</v>
+        <v>0.49807873683990805</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12399,51 +12620,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-559893.87690914597</v>
+        <v>-558236.7186788317</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.30650397271875796</v>
+        <v>-0.30559679083668617</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.30650397271875796</v>
+        <v>-0.30559679083668617</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.40763959594020022</v>
+        <v>-0.40643307567042436</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12461,7 +12682,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12482,31 +12703,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1302399.0230908538</v>
+        <v>1304056.1813211683</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.54103715893361903</v>
+        <v>0.54180826353338019</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.5600533632213105</v>
+        <v>0.56096054510338234</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.63651430462778713</v>
+        <v>0.63742148650985908</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.71297524603426377</v>
+        <v>0.71388242791633572</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.61183962281282156</v>
+        <v>0.61304614308259731</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12516,38 +12737,38 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>451549.36045357701</v>
+        <v>452353.97422024945</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -12559,15 +12780,15 @@
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.12359634438375386</v>
+        <v>0.12381658015178078</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.24719268876750772</v>
+        <v>0.24763316030356156</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.32875765646606803</v>
+        <v>0.32934346824980271</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12577,58 +12798,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>511527.54404542694</v>
+        <v>512356.12316058413</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.27051857946680952</v>
+        <v>0.27090413176669009</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.28002668161065525</v>
+        <v>0.28048027255169117</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.38005532450577051</v>
+        <v>0.38061903333081992</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.48008396740088577</v>
+        <v>0.48075779410994862</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.47029863963944479</v>
+        <v>0.47119480566619998</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12637,7 +12858,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12646,6 +12867,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80C3411-5A68-4AE3-AAF4-E70A25F308B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C64DAE-44B8-4AA9-8A23-FE858A90D304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -601,21 +593,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +623,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +644,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -869,14 +843,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -965,10 +931,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -982,6 +944,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.45236920614696147</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75804302562269843</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4464238544369687E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.22487647031402955</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45636</v>
@@ -3672,7 +2835,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>68</v>
@@ -3681,15 +2844,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>1826710016</v>
@@ -3697,7 +2860,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3927,7 +3090,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C29" s="150">
         <v>7447</v>
@@ -4043,7 +3206,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4139,7 +3302,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4171,7 +3334,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <v>0.5</v>
@@ -4196,23 +3359,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.32051282051282048</v>
+        <v>0.32467532467532467</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.1794822475435831E-2</v>
+        <v>2.2077872117973959E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.128205128205128E-2</v>
+        <v>5.1948051948051945E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.21794871794871795</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4245,13 +3408,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4317,7 +3480,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4328,7 +3491,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C54" s="59">
         <v>27002</v>
@@ -4436,7 +3599,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4447,7 +3610,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4633,7 +3796,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59">
         <v>3570139</v>
@@ -4653,7 +3816,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4661,10 +3824,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4674,16 +3837,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4692,10 +3855,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4744,7 +3907,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4765,7 +3928,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4783,7 +3946,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4822,7 +3985,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4840,7 +4003,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4924,8 +4087,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4966,62 +4129,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0806.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>VALUE PARTNERS</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>1826710016</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45636</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>2849.66762496</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>2813.1334246399997</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5044,16 +4207,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5078,40 +4241,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5124,29 +4287,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5156,12 +4319,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5169,9 +4332,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5179,91 +4342,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.45236920614696147</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>-3.0343916581399216E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.75804302562269843</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.94926420264645617</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.13689505375497812</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>-0.21041223176965987</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.79819514729258445</v>
+        <v>0.78796187617344871</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.4464238544369687E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-32.817322945266412</v>
+        <v>-32.396588035711716</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5272,18 +4435,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>-0.22487647031402955</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.9230769230769228E-2</v>
+        <v>1.948051948051948E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5293,62 +4456,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.54180826353338019</v>
+        <v>0.54233796213012542</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.70500306454498685</v>
+        <v>0.70595618544213856</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.63742148650985908</v>
-      </c>
-      <c r="G29" s="278">
+        <v>0.63804466132955939</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.61304614308259731</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>0.61387494386272923</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5358,7 +4521,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5369,14 +4532,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5386,7 +4549,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5396,14 +4559,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5413,7 +4576,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5428,14 +4591,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6379,7 +5542,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6393,7 +5555,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6420,16 +5582,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6447,7 +5609,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6480,7 +5642,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6847,7 +6009,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6898,7 +6060,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6949,7 +6111,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7000,7 +6162,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7102,7 +6264,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7255,7 +6417,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7765,7 +6927,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8275,7 +7437,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8326,7 +7488,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8395,7 +7557,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8599,7 +7761,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8701,7 +7863,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8719,14 +7881,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>1.3459267140530522</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.13689505375497812</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8770,7 +7932,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8821,7 +7983,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8872,7 +8034,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8923,7 +8085,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8940,7 +8102,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9140,11 +8302,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
@@ -9190,7 +8352,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9240,7 +8402,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10744,7 +9906,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10902,7 +10064,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11314,7 +10476,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11782,7 +10944,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11796,11 +10958,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>109653</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11811,11 +10973,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11827,11 +10989,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11848,7 +11010,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11925,7 +11087,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11971,7 +11133,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12006,7 +11168,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12045,19 +11207,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12067,18 +11229,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12155,7 +11317,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12185,7 +11347,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12215,7 +11377,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12278,7 +11440,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12308,7 +11470,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12389,7 +11551,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12420,7 +11582,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12441,28 +11603,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0471711591704968E-2</v>
+        <v>-3.0867448105882957E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0471711591704968E-2</v>
+        <v>-3.0867448105882957E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0471711591704968E-2</v>
+        <v>-3.0867448105882957E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12492,11 +11654,11 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.32051282051282048</v>
+        <v>0.32467532467532467</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
@@ -12506,7 +11668,7 @@
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.9230769230769228E-2</v>
+        <v>1.948051948051948E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12528,24 +11690,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12562,24 +11724,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61466430172630271</v>
+        <v>-0.61341087457362908</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61466430172630271</v>
+        <v>-0.61341087457362908</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12590,18 +11752,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.49807873683990805</v>
+        <v>0.49868927701765392</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12620,14 +11782,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12644,21 +11806,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-558236.7186788317</v>
+        <v>-557098.35899396578</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.30559679083668617</v>
+        <v>-0.30497361601698569</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.30559679083668617</v>
+        <v>-0.30497361601698569</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.40643307567042436</v>
+        <v>-0.40560427489029249</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12707,27 +11869,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1304056.1813211683</v>
+        <v>1305194.5410060342</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.54180826353338019</v>
+        <v>0.54233796213012542</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.56096054510338234</v>
+        <v>0.56158371992308276</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.63742148650985908</v>
+        <v>0.63804466132955939</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.71388242791633572</v>
+        <v>0.71450560273603614</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.61304614308259731</v>
+        <v>0.61387494386272923</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12737,21 +11899,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12764,11 +11926,11 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>452353.97422024945</v>
+        <v>452908.4654189237</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -12780,15 +11942,15 @@
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.12381658015178078</v>
+        <v>0.12396835333795084</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.24763316030356156</v>
+        <v>0.24793670667590167</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.32934346824980271</v>
+        <v>0.32974717434037071</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12798,21 +11960,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12825,31 +11987,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>512356.12316058413</v>
+        <v>512925.30300301703</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.27090413176669009</v>
+        <v>0.27116898106506271</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.28048027255169117</v>
+        <v>0.28079185996154138</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.38061903333081992</v>
+        <v>0.38100650733375513</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.48075779410994862</v>
+        <v>0.48122115470596893</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.47119480566619998</v>
+        <v>0.47181105910154997</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12858,7 +12020,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C64DAE-44B8-4AA9-8A23-FE858A90D304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B78041E6-EE46-4651-9C09-BE2FA71E5082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -915,10 +911,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -980,6 +972,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45636</v>
@@ -2835,7 +2855,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>68</v>
@@ -2844,15 +2864,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>1826710016</v>
@@ -2860,7 +2880,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3090,7 +3110,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>7447</v>
@@ -3172,9 +3192,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>267</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3190,7 +3210,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3206,7 +3226,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3221,10 +3241,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3236,9 +3257,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3285,10 +3306,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3302,9 +3324,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3318,7 +3340,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3334,7 +3356,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.5</v>
@@ -3359,23 +3381,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.32467532467532467</v>
+        <v>0.32679738562091504</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2077872117973959E-2</v>
+        <v>2.2222171935738496E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1948051948051945E-2</v>
+        <v>5.2287581699346407E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.2207792207792208</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3408,13 +3430,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3434,7 +3456,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3444,7 +3466,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <f>46927+74233+23318</f>
@@ -3480,7 +3502,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3491,7 +3513,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59">
         <v>27002</v>
@@ -3527,7 +3549,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3599,7 +3621,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3610,7 +3632,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3662,7 +3684,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <f>149516+38681</f>
@@ -3796,7 +3818,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>3570139</v>
@@ -3816,7 +3838,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3824,10 +3846,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3835,7 +3857,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3843,10 +3865,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3868,7 +3890,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3907,7 +3929,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3928,7 +3950,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3946,7 +3968,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3985,7 +4007,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4003,7 +4025,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4024,28 +4046,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4087,8 +4114,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4129,7 +4156,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4141,15 +4168,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4169,7 +4196,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4182,7 +4209,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>2813.1334246399997</v>
+        <v>2794.86632448</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4216,7 +4243,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4241,40 +4268,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4287,29 +4314,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4319,12 +4346,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4334,7 +4361,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4342,21 +4369,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="276">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>-3.0343916581399216E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4364,69 +4391,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.94926420264645617</v>
+        <v>252</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.13689505375497812</v>
+        <v>259</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>-0.21041223176965987</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78796187617344871</v>
+        <v>176</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.4464238544369687E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-32.396588035711716</v>
+        <v>-32.186220580934368</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4435,18 +4462,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.948051948051948E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4456,40 +4483,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.54233796213012542</v>
+        <v>0.54260767178691138</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.70595618544213856</v>
+        <v>0.70644149144752677</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.63804466132955939</v>
+        <v>0.63836196680813106</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.61387494386272923</v>
+        <v>0.61429694908480592</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4497,21 +4524,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4521,25 +4548,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4549,7 +4576,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4559,14 +4586,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4576,7 +4603,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4591,14 +4618,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5498,27 +5525,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5550,12 +5577,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5582,16 +5609,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5609,7 +5636,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5642,7 +5669,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5653,7 +5680,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6009,7 +6036,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6060,7 +6087,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6111,7 +6138,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6162,7 +6189,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6264,7 +6291,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6417,7 +6444,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6672,7 +6699,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6723,7 +6750,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6777,15 +6804,15 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>3760954</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6825,50 +6852,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>1274273</v>
+        <f>Fin_Analysis!C13</f>
+        <v>144478</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6876,50 +6903,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>144478</v>
+        <f>Fin_Analysis!C18</f>
+        <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6927,101 +6954,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>94912</v>
+        <f>Fin_Analysis!I15</f>
+        <v>14455</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7029,101 +7056,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>95903</v>
+        <f>Fin_Analysis!I34</f>
+        <v>95198</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>14455</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>109653</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7131,50 +7158,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>95198</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7182,50 +7209,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>109653</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7233,50 +7260,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>3570139</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7284,272 +7311,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>382529</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>3378425</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>-0.28319944370230754</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>382529</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>-0.28319944370230754</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.45236920614696147</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.43211534480782421</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.75804302562269843</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.81657807894372181</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.45236920614696147</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.43211534480782421</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7557,50 +7584,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.75804302562269843</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>1.4464238544369687E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.81657807894372181</v>
+        <f t="shared" si="37"/>
+        <v>9.0549369336387579E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7608,50 +7635,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7659,50 +7686,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>1.4464238544369687E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>9.0549369336387579E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7710,221 +7737,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>-0.22487647031402955</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>-0.25774836068518486</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>-0.22487647031402955</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>-0.25774836068518486</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.28061826996286338</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.13689505375497812</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7932,522 +7959,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.28061826996286338</v>
+        <v>248</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-1.0558671445377692</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>254</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.94926420264645617</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-6.4320818110365441E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>-3.5130919589818468E-2</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-1.0558671445377692</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-6.4320818110365441E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>-3.5130919589818468E-2</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>13.425836564396494</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>255</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>-3.0343916581399212E-2</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>257</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>-3.2429829762930802E-2</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9007,12 +8938,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9694,27 +9621,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9906,7 +9836,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -9953,7 +9883,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9981,7 +9911,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10064,7 +9994,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10086,7 +10016,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10154,7 +10084,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10476,7 +10406,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10613,7 +10543,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10944,7 +10874,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11010,7 +10940,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11045,7 +10975,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11066,7 +10996,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11087,7 +11017,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11102,7 +11032,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11133,7 +11063,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11147,7 +11077,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11168,7 +11098,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11183,7 +11113,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11205,7 +11135,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11213,11 +11143,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11245,7 +11175,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11317,7 +11247,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11347,7 +11277,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11377,7 +11307,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11435,12 +11365,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11470,7 +11400,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11500,7 +11430,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11551,7 +11481,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11582,7 +11512,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11603,28 +11533,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0867448105882957E-2</v>
+        <v>-3.1069196132718795E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0867448105882957E-2</v>
+        <v>-3.1069196132718795E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0867448105882957E-2</v>
+        <v>-3.1069196132718795E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11654,11 +11584,11 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.32467532467532467</v>
+        <v>0.32679738562091504</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
@@ -11668,7 +11598,7 @@
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.948051948051948E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11685,27 +11615,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11724,24 +11654,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61341087457362908</v>
+        <v>-0.6127726599186708</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61341087457362908</v>
+        <v>-0.6127726599186708</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11752,18 +11682,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.49868927701765392</v>
+        <v>0.4990007631272465</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11782,14 +11712,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11802,31 +11732,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-557098.35899396578</v>
+        <v>-556518.73389812722</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.30497361601698569</v>
+        <v>-0.30465631053841402</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.30497361601698569</v>
+        <v>-0.30465631053841402</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.40560427489029249</v>
+        <v>-0.4051822696682158</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11844,7 +11774,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11869,27 +11799,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1305194.5410060342</v>
+        <v>1305774.1661018727</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.54233796213012542</v>
+        <v>0.54260767178691138</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.56158371992308276</v>
+        <v>0.56190102540165443</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.63804466132955939</v>
+        <v>0.63836196680813106</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.71450560273603614</v>
+        <v>0.71482290821460781</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.61387494386272923</v>
+        <v>0.61429694908480592</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11899,21 +11829,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11926,11 +11856,11 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>452908.4654189237</v>
+        <v>453191.35639411886</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -11942,15 +11872,15 @@
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.12396835333795084</v>
+        <v>0.12404578516147985</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.24793670667590167</v>
+        <v>0.2480915703229597</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.32974717434037071</v>
+        <v>0.32995313759087147</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11960,21 +11890,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11987,31 +11917,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>512925.30300301703</v>
+        <v>513215.11555093626</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.27116898106506271</v>
+        <v>0.27130383589345569</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.28079185996154138</v>
+        <v>0.28095051270082722</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.38100650733375513</v>
+        <v>0.38120387598480543</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.48122115470596893</v>
+        <v>0.48145723926878375</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.47181105910154997</v>
+        <v>0.47212504333783867</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12020,7 +11950,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B78041E6-EE46-4651-9C09-BE2FA71E5082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE66828-7D37-44FD-8E70-E8BA76618B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -748,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -951,10 +947,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -984,6 +976,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>268</v>
+      <c r="C4" s="187" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>269</v>
+      <c r="C5" s="190" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45636</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>270</v>
+      <c r="C9" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>1826710016</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="191" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>245</v>
+      <c r="B15" s="215" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>230</v>
+      <c r="B17" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>230</v>
+      <c r="C19" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>230</v>
+      <c r="B20" s="238" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>230</v>
+      <c r="B21" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>243</v>
+      <c r="B22" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,408 +3042,412 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>514856</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>584543</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>232905</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>252590</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>250848+7069+19250+113116</f>
         <v>390283</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>330088+6978+20483+119776</f>
         <v>477325</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="150">
+        <v>240</v>
+      </c>
+      <c r="C29" s="149">
         <v>7447</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>5293</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>265</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="149">
+        <v>190815</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>266</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
+        <v>3570139</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.5</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <v>3.3999923061679899E-2</v>
       </c>
-      <c r="E44" s="250">
+      <c r="E44" s="247">
         <v>0.08</v>
       </c>
-      <c r="F44" s="250">
+      <c r="F44" s="247">
         <f>0.26+0.08</f>
         <v>0.34</v>
       </c>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="152">
+        <v>236</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.32679738562091504</v>
-      </c>
-      <c r="D45" s="152">
+        <v>0.32894736842105265</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2222171935738496E-2</v>
-      </c>
-      <c r="E45" s="152">
+        <v>2.2368370435315723E-2</v>
+      </c>
+      <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2287581699346407E-2</v>
-      </c>
-      <c r="F45" s="152">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="G45" s="152" t="str">
+        <v>0.22368421052631579</v>
+      </c>
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3513,7 +3525,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59">
         <v>27002</v>
@@ -3543,7 +3555,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3555,7 +3567,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3577,8 +3589,8 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3632,7 +3644,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3651,7 +3663,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3665,7 +3677,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3678,7 +3690,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3733,16 +3745,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>7278</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3770,7 +3782,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3806,21 +3818,21 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83">
+        <v>268</v>
+      </c>
+      <c r="C82" s="214">
         <v>95903</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="59">
+        <v>269</v>
+      </c>
+      <c r="C83" s="214">
         <v>3570139</v>
       </c>
     </row>
@@ -3838,20 +3850,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="197">
+        <v>234</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="269">
+        <v>232</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3881,10 +3893,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3896,12 +3908,12 @@
         <f>C25</f>
         <v>514856</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>514856</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>514856</v>
       </c>
@@ -3914,75 +3926,75 @@
         <f>C26</f>
         <v>232905</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.45236920614696147</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>232905</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>232905</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>390283</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.75804302562269843</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>390283</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>390283</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>7447</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>1.4464238544369687E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>7447</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3995,12 +4007,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4013,12 +4025,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4027,15 +4039,15 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.5</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <v>0</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <v>0.03</v>
       </c>
       <c r="G98" s="1"/>
@@ -4115,7 +4127,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4167,11 +4179,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>1.53</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="G3" s="131">
+        <v>1.52</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4209,7 +4221,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>2794.86632448</v>
+        <v>2776.5992243200003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4219,11 +4231,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4245,11 +4257,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0008</v>
       </c>
@@ -4257,7 +4269,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4267,10 +4279,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4278,7 +4290,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4286,13 +4298,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4301,12 +4313,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="174">
+        <v>237</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4316,7 +4328,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4327,7 +4339,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4335,13 +4347,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4351,129 +4363,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="175">
+        <v>238</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>-3.0343916581399216E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.94926420264645617</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.13689505375497812</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>260</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>-0.21041223176965987</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.77772860505431307</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>1.4464238544369687E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>244</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-32.186220580934368</v>
+        <v>-31.975853126157016</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>262</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>-0.63110236433204636</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.9607843137254902E-2</v>
+        <v>1.9736842105263157E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4490,10 +4502,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4501,22 +4513,22 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.54260767178691138</v>
-      </c>
-      <c r="D29" s="129">
+        <v>0.54288070126526411</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>0.70644149144752677</v>
+        <v>0.70693277102227958</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.63836196680813106</v>
+        <v>0.63868317795913421</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.61429694908480592</v>
+        <v>0.61472414871502579</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4524,23 +4536,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>210</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4548,9 +4560,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>211</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4558,17 +4570,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4576,26 +4588,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>225</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>214</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4603,9 +4615,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>217</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4618,16 +4630,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5579,10 +5591,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5608,16 +5620,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5631,11 +5643,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5660,7 +5672,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5668,7 +5680,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5732,47 +5744,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>514856</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>584543</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5834,47 +5846,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>232905</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>252590</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5885,47 +5897,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>281951</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>331953</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5936,47 +5948,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>390283</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>477325</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5987,47 +5999,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6036,49 +6048,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="199" t="str">
+        <v>226</v>
+      </c>
+      <c r="C12" s="198" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="D12" s="199" t="str">
+      <c r="D12" s="198" t="str">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6086,50 +6098,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-0.21041223176965987</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>-0.24869342375154607</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6137,50 +6149,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-108332</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-145372</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6188,50 +6200,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.25479459593319209</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6242,47 +6254,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6291,49 +6303,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="199">
+        <v>240</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>7447</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>5293</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6344,47 +6356,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6395,47 +6407,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6444,49 +6456,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="152">
+        <v>221</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6497,47 +6509,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6548,47 +6560,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-115779</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-150665</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6599,47 +6611,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-0.16865735273552215</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>-0.19331127051388863</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6650,7 +6662,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-86834.25</v>
       </c>
@@ -6698,50 +6710,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.23154680914611886</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6805,7 +6817,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>3760954</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6858,43 +6870,43 @@
         <f>Fin_Analysis!C13</f>
         <v>144478</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6909,43 +6921,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6954,49 +6966,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199" t="str">
+        <v>190815</v>
+      </c>
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7011,43 +7023,43 @@
         <f>Fin_Analysis!I15</f>
         <v>14455</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7062,43 +7074,43 @@
         <f>Fin_Analysis!I34</f>
         <v>95198</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7162,45 +7174,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199" t="str">
+        <v>3570139</v>
+      </c>
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7215,43 +7227,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7266,43 +7278,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7364,47 +7376,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>-0.28319944370230754</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7413,7 +7425,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7433,47 +7445,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.45236920614696147</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.43211534480782421</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7482,49 +7494,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="153">
+        <v>220</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.75804302562269843</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.81657807894372181</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7535,47 +7547,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7586,47 +7598,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.4464238544369687E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>9.0549369336387579E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7637,47 +7649,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7686,49 +7698,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="153">
+        <v>222</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7739,47 +7751,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>-0.22487647031402955</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>-0.25774836068518486</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7788,9 +7800,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>249</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>267</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7805,50 +7819,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272" t="e">
+        <v>0.13689505375497812</v>
+      </c>
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7857,49 +7871,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C49" s="153">
+        <v>256</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.28061826996286338</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7908,49 +7922,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C50" s="153">
+        <v>257</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7959,49 +7973,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>247</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8010,7 +8024,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8027,49 +8041,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>251</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156" t="str">
+        <v>0.94926420264645617</v>
+      </c>
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8079,47 +8093,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-1.0558671445377692</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8129,47 +8143,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-6.4320818110365441E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>-3.5130919589818468E-2</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8179,47 +8193,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8227,149 +8241,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>252</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274" t="e">
+        <v>-3.0343916581399212E-2</v>
+      </c>
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274" t="e">
+        <v>-3.2429829762930802E-2</v>
+      </c>
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9665,8 +9679,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9702,8 +9716,8 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>3570139</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9715,8 +9729,8 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>3570139</v>
       </c>
       <c r="K3" s="24"/>
@@ -9726,8 +9740,8 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9814,11 +9828,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9861,7 +9875,7 @@
         <f>Inputs!C48</f>
         <v>922361</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9889,7 +9903,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9917,7 +9931,7 @@
         <f>Inputs!C50</f>
         <v>144478</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9945,7 +9959,7 @@
         <f>Inputs!C51</f>
         <v>179879</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9958,7 +9972,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9973,7 +9987,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10000,7 +10014,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10022,7 +10036,7 @@
         <f>Inputs!C54</f>
         <v>27002</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10044,7 +10058,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10065,7 +10079,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10073,7 +10087,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10090,7 +10104,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10098,7 +10112,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10117,7 +10131,7 @@
         <f>Inputs!C58</f>
         <v>553</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10138,7 +10152,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10303,7 +10317,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>94912</v>
       </c>
@@ -10332,7 +10346,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10358,7 +10372,7 @@
         <f>Inputs!C61</f>
         <v>1575035</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10385,7 +10399,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10412,7 +10426,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10428,7 +10442,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10442,7 +10456,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10469,7 +10483,7 @@
         <f>Inputs!C65</f>
         <v>513574</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10477,7 +10491,7 @@
         <f t="shared" si="1"/>
         <v>51357.4</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10495,7 +10509,7 @@
         <f>Inputs!C66</f>
         <v>187576</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10503,7 +10517,7 @@
         <f t="shared" si="1"/>
         <v>37515.200000000004</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10522,7 +10536,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10530,7 +10544,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10549,7 +10563,7 @@
         <f>Inputs!C68</f>
         <v>188197</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10570,7 +10584,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10591,7 +10605,7 @@
         <f>Inputs!C70</f>
         <v>11428</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10612,7 +10626,7 @@
         <f>Inputs!C71</f>
         <v>3593</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10633,7 +10647,7 @@
         <f>Inputs!C72</f>
         <v>7278</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10779,8 +10793,8 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>95903</v>
       </c>
       <c r="J48" s="8"/>
@@ -10806,8 +10820,8 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>190815</v>
       </c>
       <c r="J49" s="87"/>
@@ -10877,7 +10891,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10977,7 +10991,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>922361</v>
       </c>
@@ -10985,7 +10999,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>830124.9</v>
       </c>
@@ -11016,11 +11030,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>109653</v>
@@ -11097,12 +11111,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>81162</v>
       </c>
@@ -11181,17 +11195,17 @@
         <f>Data!C6</f>
         <v>514856</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>514856</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>514856</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11202,23 +11216,23 @@
         <f>Data!C8</f>
         <v>232905</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.45236920614696147</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>232905</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.45236920614696147</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>232905</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.45236920614696147</v>
       </c>
@@ -11228,48 +11242,48 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>281951</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>281951</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>281951</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>390283</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.75804302562269843</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>390283</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.75804302562269843</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>390283</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.75804302562269843</v>
       </c>
@@ -11283,54 +11297,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>-108332</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>-0.21041223176965987</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>-108332</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>-0.21041223176965987</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>-108332</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>-0.21041223176965987</v>
       </c>
@@ -11344,55 +11358,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>7447</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>1.4464238544369687E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>7447</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>1.4464238544369687E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>7447</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>1.4464238544369687E-2</v>
       </c>
@@ -11400,29 +11414,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11432,27 +11446,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>-115779</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>-0.22487647031402955</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>-115779</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>-0.22487647031402955</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>-115779</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>-0.22487647031402955</v>
       </c>
@@ -11462,49 +11476,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>-86834.25</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>-0.16865735273552215</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>-86834.25</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>-0.16865735273552215</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>-86834.25</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>-0.16865735273552215</v>
       </c>
@@ -11514,69 +11528,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-4.7535870083059754E-2</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-4.7535870083059754E-2</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-4.7535870083059754E-2</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1069196132718795E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>-3.1273598738855102E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1069196132718795E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>-3.1273598738855102E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1069196132718795E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>-3.1273598738855102E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.5</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>-10.51837273886744</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.03</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>-0.63110236433204636</v>
       </c>
@@ -11584,23 +11598,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="261">
+        <v>207</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.32679738562091504</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>0.32894736842105265</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.9607843137254902E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>1.9736842105263157E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11622,7 +11636,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11645,27 +11659,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.6127726599186708</v>
+        <v>-0.61212658956139565</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.6127726599186708</v>
+        <v>-0.61212658956139565</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11673,27 +11687,27 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.4990007631272465</v>
+        <v>0.49931650644991749</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11707,25 +11721,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11736,21 +11750,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-556518.73389812722</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>-555931.97427133902</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.30465631053841402</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>-0.30433509938741093</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.30465631053841402</v>
-      </c>
-      <c r="I97" s="123">
+        <v>-0.30433509938741093</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.4051822696682158</v>
+        <v>-0.40475507003799593</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11762,14 +11776,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11780,17 +11794,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>1862292.9</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0.86655733594006845</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>1.0194792187530217</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11799,27 +11813,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1305774.1661018727</v>
+        <v>1306360.925728661</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.54260767178691138</v>
+        <v>0.54288070126526411</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.56190102540165443</v>
+        <v>0.56222223655265746</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.63836196680813106</v>
+        <v>0.63868317795913421</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.71482290821460781</v>
+        <v>0.71514411936561095</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.61429694908480592</v>
+        <v>0.61472414871502579</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11831,25 +11845,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -11860,27 +11874,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>453191.35639411886</v>
+        <v>453478.11376053421</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="123">
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.12404578516147985</v>
-      </c>
-      <c r="H103" s="123">
+        <v>0.12412427527865874</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.2480915703229597</v>
+        <v>0.24824855055731748</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.32995313759087147</v>
+        <v>0.33016191582867566</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11892,25 +11906,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -11921,27 +11935,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>513215.11555093626</v>
+        <v>513508.49536433036</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.27130383589345569</v>
-      </c>
-      <c r="E106" s="123">
+        <v>0.27144035063263205</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>0.28095051270082722</v>
+        <v>0.28111111827632873</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.38120387598480543</v>
-      </c>
-      <c r="H106" s="123">
+        <v>0.38140372661889649</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>0.48145723926878375</v>
-      </c>
-      <c r="I106" s="123">
+        <v>0.48169633496146425</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>0.47212504333783867</v>
+        <v>0.47244303227185069</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11952,14 +11966,13 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE66828-7D37-44FD-8E70-E8BA76618B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35ECAF7F-5C85-40F9-BDB3-2273DF763F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3252,9 +3252,7 @@
       <c r="B37" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="149">
-        <v>190815</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3318,9 +3316,7 @@
       <c r="B41" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149">
-        <v>3570139</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3336,9 +3332,7 @@
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3397,19 +3391,19 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.32894736842105265</v>
+        <v>0.33112582781456956</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2368370435315723E-2</v>
+        <v>2.2516505338860859E-2</v>
       </c>
       <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2631578947368418E-2</v>
+        <v>5.2980132450331126E-2</v>
       </c>
       <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.22368421052631579</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4180,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>273</v>
@@ -4221,7 +4215,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>2776.5992243200003</v>
+        <v>2758.3321241599997</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4390,9 +4384,9 @@
       <c r="B20" s="272" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="273">
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>-3.0343916581399216E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
@@ -4405,9 +4399,9 @@
       <c r="B21" s="274" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="275">
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
-        <v>0.94926420264645617</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
@@ -4416,9 +4410,9 @@
       <c r="B22" s="276" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="277">
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
-        <v>0.13689505375497812</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="141" t="s">
         <v>172</v>
@@ -4435,9 +4429,9 @@
       <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="176">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.77772860505431307</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4453,7 +4447,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-31.975853126157016</v>
+        <v>-31.765485671379668</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4485,7 +4479,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.9736842105263157E-2</v>
+        <v>1.9867549668874173E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4515,20 +4509,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.54288070126526411</v>
+        <v>0.54315711209107043</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>0.70693277102227958</v>
+        <v>0.70743013487389961</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.63868317795913421</v>
+        <v>0.63900836716596521</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.61472414871502579</v>
+        <v>0.61515663902078233</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -6817,7 +6811,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>3760954</v>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6970,7 +6964,7 @@
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>190815</v>
+        <v>0</v>
       </c>
       <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
@@ -7174,7 +7168,7 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>3570139</v>
+        <v>0</v>
       </c>
       <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
@@ -7822,9 +7816,9 @@
       <c r="B48" s="268" t="s">
         <v>255</v>
       </c>
-      <c r="C48" s="269">
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>0.13689505375497812</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
@@ -8043,9 +8037,9 @@
       <c r="B53" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="C53" s="155">
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>0.94926420264645617</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
@@ -8293,9 +8287,9 @@
       <c r="B58" s="268" t="s">
         <v>253</v>
       </c>
-      <c r="C58" s="271">
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>-3.0343916581399212E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
@@ -8343,9 +8337,9 @@
       <c r="B59" s="268" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="271">
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>-3.2429829762930802E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
@@ -9718,11 +9712,11 @@
       <c r="C3" s="87"/>
       <c r="D3" s="204">
         <f>Inputs!C41</f>
-        <v>3570139</v>
+        <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v/>
+        <v>Error!</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
@@ -9731,7 +9725,7 @@
       </c>
       <c r="I3" s="282">
         <f>D3-D4</f>
-        <v>3570139</v>
+        <v>0</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -9774,11 +9768,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>1893640.4</v>
-      </c>
-      <c r="E6" s="56">
+        <v>2084455.4</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>0.46958916725651301</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9800,7 +9794,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.036639851653389</v>
+        <v>1.1410981391367157</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10321,9 +10315,9 @@
         <f>Inputs!C77</f>
         <v>94912</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="32" t="e">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>4</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10662,7 +10656,7 @@
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>705</v>
+        <v>-190110</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10763,13 +10757,13 @@
       <c r="H47" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>10.60617718732804</v>
-      </c>
-      <c r="J47" s="8" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="8" t="e">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10795,7 +10789,7 @@
       </c>
       <c r="I48" s="281">
         <f>I49-I28</f>
-        <v>95903</v>
+        <v>-94912</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10822,7 +10816,7 @@
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>190815</v>
+        <v>0</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -11118,7 +11112,7 @@
       <c r="D69" s="205"/>
       <c r="E69" s="125">
         <f>I49-E64</f>
-        <v>81162</v>
+        <v>-109653</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11131,15 +11125,15 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>301367</v>
+        <v>492182</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0.10401769271353532</v>
+        <v>0.45138282180169126</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>31347.5</v>
+        <v>222162.5</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11551,17 +11545,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1273598738855102E-2</v>
+        <v>-3.1480708664277983E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1273598738855102E-2</v>
+        <v>-3.1480708664277983E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1273598738855102E-2</v>
+        <v>-3.1480708664277983E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11602,7 +11596,7 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.32894736842105265</v>
+        <v>0.33112582781456956</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
@@ -11612,7 +11606,7 @@
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.9736842105263157E-2</v>
+        <v>1.9867549668874173E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11672,14 +11666,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61212658956139565</v>
+        <v>-0.61147251791293855</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61212658956139565</v>
+        <v>-0.61147251791293855</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11707,7 +11701,7 @@
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.49931650644991749</v>
+        <v>0.49963659480200989</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11750,21 +11744,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-555931.97427133902</v>
+        <v>-555337.94789012568</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.30433509938741093</v>
+        <v>-0.30400991018057988</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.30433509938741093</v>
+        <v>-0.30400991018057988</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.40475507003799593</v>
+        <v>-0.4043225797322394</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11813,27 +11807,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1306360.925728661</v>
+        <v>1306954.9521098742</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.54288070126526411</v>
+        <v>0.54315711209107043</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.56222223655265746</v>
+        <v>0.56254742575948857</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.63868317795913421</v>
+        <v>0.63900836716596521</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.71514411936561095</v>
+        <v>0.71546930857244184</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.61472414871502579</v>
+        <v>0.61515663902078233</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11874,7 +11868,7 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>453478.11376053421</v>
+        <v>453768.81727277255</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -11886,15 +11880,15 @@
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.12412427527865874</v>
+        <v>0.12420384551960889</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.24824855055731748</v>
+        <v>0.24840769103921778</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.33016191582867566</v>
+        <v>0.33037356712038368</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11935,27 +11929,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>513508.49536433036</v>
+        <v>513805.50855493709</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.27144035063263205</v>
+        <v>0.27157855604553521</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>0.28111111827632873</v>
+        <v>0.28127371287974429</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.38140372661889649</v>
+        <v>0.38160610634278702</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>0.48169633496146425</v>
+        <v>0.48193849980582981</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>0.47244303227185069</v>
+        <v>0.472765103070583</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35ECAF7F-5C85-40F9-BDB3-2273DF763F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23BA9DD-3958-4A0B-9578-7E4EDCE430F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -850,10 +847,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -971,10 +964,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -992,6 +981,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1829,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2015,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2826,172 +2820,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="191" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
+      <c r="C10" s="190">
+        <v>1826710016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="192">
-        <v>1826710016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>244</v>
+      <c r="B15" s="213" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>229</v>
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>229</v>
+      <c r="C19" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>229</v>
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>229</v>
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>242</v>
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>240</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3039,418 +3033,419 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>514856</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>584543</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
         <v>232905</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>252590</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
         <f>250848+7069+19250+113116</f>
         <v>390283</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>330088+6978+20483+119776</f>
         <v>477325</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="148">
+        <v>7447</v>
+      </c>
+      <c r="D29" s="148">
+        <v>5293</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="149">
-        <v>7447</v>
-      </c>
-      <c r="D29" s="149">
-        <v>5293</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.5</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <v>3.3999923061679899E-2</v>
       </c>
-      <c r="E44" s="247">
+      <c r="E44" s="245">
         <v>0.08</v>
       </c>
-      <c r="F44" s="247">
+      <c r="F44" s="245">
         <f>0.26+0.08</f>
         <v>0.34</v>
       </c>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="151">
+        <v>234</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.33112582781456956</v>
-      </c>
-      <c r="D45" s="151">
+        <v>0.32894736842105265</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2516505338860859E-2</v>
-      </c>
-      <c r="E45" s="151">
+        <v>2.2368370435315723E-2</v>
+      </c>
+      <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2980132450331126E-2</v>
-      </c>
-      <c r="F45" s="151">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.2251655629139073</v>
-      </c>
-      <c r="G45" s="151" t="str">
+        <v>0.22368421052631579</v>
+      </c>
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>922361</v>
@@ -3458,21 +3453,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <f>46927+74233+23318</f>
@@ -3482,11 +3477,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>179879</v>
@@ -3494,32 +3489,32 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>27002</v>
@@ -3527,47 +3522,47 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>68</v>
+      <c r="E56" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <f>553</f>
@@ -3577,33 +3572,33 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <v>1575035</v>
@@ -3612,43 +3607,43 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <f>512565+1009</f>
@@ -3657,13 +3652,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>187576</v>
@@ -3671,26 +3666,26 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>68</v>
+      <c r="E66" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <f>149516+38681</f>
@@ -3700,22 +3695,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>11428</v>
@@ -3723,11 +3718,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>3593</v>
@@ -3736,23 +3731,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242">
         <v>7278</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>1149</v>
@@ -3760,7 +3755,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>13306</v>
@@ -3768,27 +3763,27 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>94912</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <v>70891</v>
@@ -3796,7 +3791,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>24307</v>
@@ -3804,77 +3799,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>268</v>
-      </c>
-      <c r="C82" s="214">
+        <v>265</v>
+      </c>
+      <c r="C82" s="212">
         <v>95903</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="C83" s="214">
+        <v>266</v>
+      </c>
+      <c r="C83" s="212">
         <v>3570139</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="196">
+        <v>232</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="266">
+        <v>231</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3883,165 +3878,165 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>514856</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>514856</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>514856</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>232905</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.45236920614696147</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>232905</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>232905</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>231</v>
+      <c r="B93" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>390283</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.75804302562269843</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>390283</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>390283</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>240</v>
+      <c r="B94" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>7447</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>1.4464238544369687E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>7447</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.5</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <v>0</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <v>0.03</v>
       </c>
       <c r="G98" s="1"/>
@@ -4053,32 +4048,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4137,13 +4132,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4154,82 +4149,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0806.HK : VALUE PARTNERS</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0806.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>1.51</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>273</v>
+      <c r="G3" s="130">
+        <v>1.52</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>VALUE PARTNERS</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>1826710016</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45636</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>2758.3321241599997</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>2776.5992243200003</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4240,30 +4235,30 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0008</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4273,280 +4268,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>-0.21041223176965987</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>1.4464238544369687E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-31.765485671379668</v>
+        <v>-31.975853126157016</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>-0.63110236433204636</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.9867549668874173E-2</v>
+        <v>1.9736842105263157E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.54315711209107043</v>
-      </c>
-      <c r="D29" s="128">
+        <v>0.54288070126526411</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>0.70743013487389961</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>0.70693277102227958</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.63900836716596521</v>
-      </c>
-      <c r="G29" s="286">
+        <v>0.63868317795913421</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.61515663902078233</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>0.61472414871502579</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4554,9 +4549,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4564,17 +4559,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4582,26 +4577,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4609,9 +4604,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4624,16 +4619,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5585,10 +5580,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5614,59 +5609,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>-108332</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5674,19 +5669,19 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5735,928 +5730,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>514856</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>584543</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-0.11921620821735956</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>232905</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>252590</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>281951</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>331953</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>390283</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>477325</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198" t="str">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="D12" s="198" t="str">
+      <c r="D12" s="196" t="str">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-0.21041223176965987</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>-0.24869342375154607</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-108332</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-145372</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.25479459593319209</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>7447</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>5293</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-115779</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-150665</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-0.16865735273552215</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>-0.19331127051388863</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-86834.25</v>
       </c>
@@ -6700,63 +6695,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.23154680914611886</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6802,11 +6797,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
@@ -6853,266 +6848,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>144478</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>263</v>
+      <c r="B30" s="93" t="s">
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>14455</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>95198</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7159,169 +7154,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>382529</v>
+        <v>-3378425</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7363,63 +7358,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>-0.28319944370230754</v>
-      </c>
-      <c r="D38" s="154" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7432,372 +7427,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.45236920614696147</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.43211534480782421</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.75804302562269843</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.81657807894372181</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.4464238544369687E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>9.0549369336387579E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>-0.22487647031402955</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>-0.25774836068518486</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>267</v>
+      <c r="B47" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>264</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7809,216 +7804,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.28061826996286338</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>250</v>
+      <c r="B52" s="101" t="s">
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8034,350 +8029,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-1.0558671445377692</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-6.4320818110365441E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>-3.5130919589818468E-2</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9656,7 +9651,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9674,7 +9669,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9692,38 +9687,38 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v>Error!</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+        <v/>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9731,28 +9726,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9765,7 +9760,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>2084455.4</v>
@@ -9774,16 +9769,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>13.420010114632502</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9791,7 +9786,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>1.1410981391367157</v>
@@ -9801,287 +9796,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>13.135515003371545</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>922361</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>830124.9</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>1149</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>13306</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>144478</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>86686.8</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>179879</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>107927.4</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>14455</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>27002</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>2700.2000000000003</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10092,21 +10087,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10119,45 +10114,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>553</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>497.7</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10165,17 +10160,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10185,19 +10180,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.82194939031922221</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>1024739.1000000001</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.99688901168067701</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10207,17 +10202,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.1</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>2700.2000000000003</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>2.6268146783314543E-3</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10226,7 +10221,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10236,17 +10231,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10259,7 +10254,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10269,17 +10264,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>497.7</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>4.8417364099161717E-4</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10306,12 +10301,12 @@
         <f>SUM(E24:E27)</f>
         <v>1027937</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>94912</v>
       </c>
@@ -10321,171 +10316,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>70891</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>1575035</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>945021</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>24307</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>95198</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>513574</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>51357.4</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10493,25 +10488,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>187576</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>37515.200000000004</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10519,26 +10514,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10546,113 +10541,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>188197</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>18819.7</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>11428</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>571.4</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>3593</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>3233.7000000000003</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>7278</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10660,17 +10655,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10680,16 +10675,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.6</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>945021</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10699,16 +10694,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.1</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>51357.4</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10718,14 +10713,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.14991737032729868</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>56334.900000000009</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10738,7 +10733,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10748,14 +10743,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.17063993901071797</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>3805.1000000000004</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10768,13 +10763,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>2486681</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.42487090221866008</v>
       </c>
@@ -10782,12 +10777,12 @@
         <f>SUM(E30:E42)</f>
         <v>1056518.3999999999</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>-94912</v>
       </c>
@@ -10798,63 +10793,63 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>3760954</v>
-      </c>
-      <c r="D49" s="56">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="56" t="e">
         <f>E49/C49</f>
-        <v>0.5542358135728328</v>
-      </c>
-      <c r="E49" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>2084455.4</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10862,45 +10857,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>109653</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10908,61 +10903,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10976,35 +10971,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>1141820.9999999998</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>922361</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>830124.9</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11018,29 +11013,29 @@
         <f>E61+E62</f>
         <v>1971945.9</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>109653</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11054,9 +11049,9 @@
         <f>E63-E64</f>
         <v>1862292.9</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11064,100 +11059,100 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>382529</v>
+        <v>-3378425</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>0.29412018435203607</v>
+        <v>-3.33023524275365E-2</v>
       </c>
       <c r="E68" s="68">
         <f>E49-E63</f>
         <v>112509.5</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>-109653</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>492182</v>
+        <v>-3268772</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0.45138282180169126</v>
+        <v>-6.7965125741409921E-2</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
         <v>222162.5</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11167,66 +11162,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>514856</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>514856</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>514856</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>232905</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.45236920614696147</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>232905</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.45236920614696147</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>232905</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.45236920614696147</v>
       </c>
@@ -11234,50 +11229,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>281951</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>281951</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>281951</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>231</v>
+      <c r="B77" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>390283</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.75804302562269843</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>390283</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.75804302562269843</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>390283</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.75804302562269843</v>
       </c>
@@ -11285,60 +11280,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>-108332</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>-0.21041223176965987</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>-108332</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>-0.21041223176965987</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>-108332</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>-0.21041223176965987</v>
       </c>
@@ -11346,61 +11341,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>240</v>
+      <c r="B81" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>7447</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>1.4464238544369687E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>7447</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>1.4464238544369687E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>7447</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>1.4464238544369687E-2</v>
       </c>
@@ -11408,59 +11403,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>-115779</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>-0.22487647031402955</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>-115779</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>-0.22487647031402955</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>-115779</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>-0.22487647031402955</v>
       </c>
@@ -11468,184 +11463,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>-86834.25</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>-0.16865735273552215</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>-86834.25</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>-0.16865735273552215</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>-86834.25</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>-0.16865735273552215</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-4.7535870083059754E-2</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-4.7535870083059754E-2</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-4.7535870083059754E-2</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1480708664277983E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>-3.1273598738855102E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1480708664277983E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>-3.1273598738855102E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1480708664277983E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>-3.1273598738855102E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.5</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>-10.51837273886744</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.03</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>-0.63110236433204636</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.33112582781456956</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>0.32894736842105265</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.9867549668874173E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>1.9736842105263157E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11653,55 +11648,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61147251791293855</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+        <v>-0.61212658956139565</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61147251791293855</v>
+        <v>-0.61212658956139565</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.49963659480200989</v>
+        <v>0.49931650644991749</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11711,123 +11706,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-555337.94789012568</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>-555931.97427133902</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.30400991018057988</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>-0.30433509938741093</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.30400991018057988</v>
-      </c>
-      <c r="I97" s="122">
+        <v>-0.30433509938741093</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.4043225797322394</v>
+        <v>-0.40475507003799593</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="212"/>
+      <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="B99" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>1862292.9</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0.86655733594006845</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>1.0194792187530217</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>1306954.9521098742</v>
-      </c>
-      <c r="D100" s="109">
+        <v>1306360.925728661</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.54315711209107043</v>
-      </c>
-      <c r="E100" s="109">
+        <v>0.54288070126526411</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.56254742575948857</v>
-      </c>
-      <c r="F100" s="109">
+        <v>0.56222223655265746</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>0.63900836716596521</v>
-      </c>
-      <c r="H100" s="109">
+        <v>0.63868317795913421</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.71546930857244184</v>
-      </c>
-      <c r="I100" s="109">
+        <v>0.71514411936561095</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.61515663902078233</v>
+        <v>0.61472414871502579</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11837,58 +11832,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>453768.81727277255</v>
-      </c>
-      <c r="D103" s="109">
+        <v>453478.11376053421</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="122">
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="109">
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>0.12420384551960889</v>
-      </c>
-      <c r="H103" s="122">
+        <v>0.12412427527865874</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.24840769103921778</v>
-      </c>
-      <c r="I103" s="109">
+        <v>0.24824855055731748</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.33037356712038368</v>
+        <v>0.33016191582867566</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11898,58 +11893,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>513805.50855493709</v>
-      </c>
-      <c r="D106" s="109">
+        <v>513508.49536433036</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>0.27157855604553521</v>
-      </c>
-      <c r="E106" s="122">
+        <v>0.27144035063263205</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>0.28127371287974429</v>
-      </c>
-      <c r="F106" s="109">
+        <v>0.28111111827632873</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>0.38160610634278702</v>
-      </c>
-      <c r="H106" s="122">
+        <v>0.38140372661889649</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>0.48193849980582981</v>
-      </c>
-      <c r="I106" s="122">
+        <v>0.48169633496146425</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>0.472765103070583</v>
+        <v>0.47244303227185069</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11958,15 +11953,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23BA9DD-3958-4A0B-9578-7E4EDCE430F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7109A02F-9A96-4A4D-B215-8711467D9B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -989,6 +989,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1678,7 +1686,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2330,9 +2338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2351,6 +2353,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2842,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2836,7 +2850,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2928,6 +2942,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3385,19 +3402,19 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.32894736842105265</v>
+        <v>0.33112582781456956</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2368370435315723E-2</v>
+        <v>2.2516505338860859E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2631578947368418E-2</v>
+        <v>5.2980132450331126E-2</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.22368421052631579</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3860,11 +3877,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -3878,10 +3895,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4101,8 +4118,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4115,8 +4135,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4159,60 +4179,60 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0806.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>VALUE PARTNERS</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1826710016</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45636</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>2776.5992243200003</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>2758.3321241599997</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4235,11 +4255,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4380,7 +4400,7 @@
         <v>251</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4392,20 +4412,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>256</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>-0.21041223176965987</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4414,12 +4434,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>-0.21041223176965987</v>
+      <c r="B23" s="275" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
@@ -4430,10 +4450,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>1.4464238544369687E-2</v>
       </c>
@@ -4442,7 +4462,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-31.975853126157016</v>
+        <v>-31.765485671379668</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4474,7 +4494,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.9736842105263157E-2</v>
+        <v>1.9867549668874173E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4493,10 +4513,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>239</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4504,22 +4524,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.54288070126526411</v>
+        <v>0.54315711209107043</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>0.70693277102227958</v>
+        <v>0.70743013487389961</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.63868317795913421</v>
-      </c>
-      <c r="G29" s="285">
+        <v>0.63900836716596521</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.61472414871502579</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>0.61515663902078233</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5550,7 +5570,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7791,7 +7811,7 @@
       <c r="B47" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>264</v>
       </c>
       <c r="D47" s="36"/>
@@ -9718,7 +9738,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10765,7 +10785,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>2486681</v>
       </c>
@@ -10782,7 +10802,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>-94912</v>
       </c>
@@ -10891,11 +10911,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>109653</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10906,11 +10926,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10922,11 +10942,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11140,19 +11160,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11162,18 +11182,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11540,17 +11560,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1273598738855102E-2</v>
+        <v>-3.1480708664277983E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1273598738855102E-2</v>
+        <v>-3.1480708664277983E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1273598738855102E-2</v>
+        <v>-3.1480708664277983E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11591,7 +11611,7 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.32894736842105265</v>
+        <v>0.33112582781456956</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
@@ -11601,7 +11621,7 @@
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.9736842105263157E-2</v>
+        <v>1.9867549668874173E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11632,15 +11652,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11661,14 +11681,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61212658956139565</v>
+        <v>-0.61147251791293855</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61212658956139565</v>
+        <v>-0.61147251791293855</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11696,7 +11716,7 @@
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.49931650644991749</v>
+        <v>0.49963659480200989</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11739,21 +11759,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-555931.97427133902</v>
+        <v>-555337.94789012568</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.30433509938741093</v>
+        <v>-0.30400991018057988</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.30433509938741093</v>
+        <v>-0.30400991018057988</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.40475507003799593</v>
+        <v>-0.4043225797322394</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11802,27 +11822,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>1306360.925728661</v>
+        <v>1306954.9521098742</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.54288070126526411</v>
+        <v>0.54315711209107043</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.56222223655265746</v>
+        <v>0.56254742575948857</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>0.63868317795913421</v>
+        <v>0.63900836716596521</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.71514411936561095</v>
+        <v>0.71546930857244184</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.61472414871502579</v>
+        <v>0.61515663902078233</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11863,7 +11883,7 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>453478.11376053421</v>
+        <v>453768.81727277255</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -11875,15 +11895,15 @@
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>0.12412427527865874</v>
+        <v>0.12420384551960889</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.24824855055731748</v>
+        <v>0.24840769103921778</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.33016191582867566</v>
+        <v>0.33037356712038368</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11924,27 +11944,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>513508.49536433036</v>
+        <v>513805.50855493709</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>0.27144035063263205</v>
+        <v>0.27157855604553521</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>0.28111111827632873</v>
+        <v>0.28127371287974429</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>0.38140372661889649</v>
+        <v>0.38160610634278702</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>0.48169633496146425</v>
+        <v>0.48193849980582981</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>0.47244303227185069</v>
+        <v>0.472765103070583</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7109A02F-9A96-4A4D-B215-8711467D9B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6767DA1B-C16B-40D8-9072-311B465D5404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3402,19 +3402,19 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.33112582781456956</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2516505338860859E-2</v>
+        <v>2.2666615374453265E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2980132450331126E-2</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.2251655629139073</v>
+        <v>0.22666666666666668</v>
       </c>
       <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>274</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>2758.3321241599997</v>
+        <v>2740.065024</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-31.765485671379668</v>
+        <v>-31.555118216602317</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.9867549668874173E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4524,20 +4524,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.54315711209107043</v>
+        <v>0.54343696731591873</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>0.70743013487389961</v>
+        <v>0.70793369645518145</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.63900836716596521</v>
+        <v>0.6393376086069632</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.61515663902078233</v>
+        <v>0.61559451865667958</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9689,7 +9689,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11560,17 +11560,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1480708664277983E-2</v>
+        <v>-3.1690580055373167E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1480708664277983E-2</v>
+        <v>-3.1690580055373167E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.1480708664277983E-2</v>
+        <v>-3.1690580055373167E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.33112582781456956</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
@@ -11621,7 +11621,7 @@
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.9867549668874173E-2</v>
+        <v>0.02</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11681,14 +11681,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61147251791293855</v>
+        <v>-0.61081029577416446</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61147251791293855</v>
+        <v>-0.61081029577416446</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11716,7 +11716,7 @@
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.49963659480200989</v>
+        <v>0.49996111843018876</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11759,21 +11759,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-555337.94789012568</v>
+        <v>-554736.51925217244</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.30400991018057988</v>
+        <v>-0.30368066873958194</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.30400991018057988</v>
+        <v>-0.30368066873958194</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.4043225797322394</v>
+        <v>-0.40388470009634209</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11800,7 +11800,7 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>1862292.9</v>
       </c>
       <c r="D99" s="209"/>
@@ -11822,27 +11822,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>1306954.9521098742</v>
+        <v>1307556.3807478275</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.54315711209107043</v>
+        <v>0.54343696731591873</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.56254742575948857</v>
+        <v>0.56287666720048657</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>0.63900836716596521</v>
+        <v>0.6393376086069632</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.71546930857244184</v>
+        <v>0.71579855001343984</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.61515663902078233</v>
+        <v>0.61559451865667958</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11883,7 +11883,7 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>453768.81727277255</v>
+        <v>454063.54889264953</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -11895,15 +11895,15 @@
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>0.12420384551960889</v>
+        <v>0.12428451831860146</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.24840769103921778</v>
+        <v>0.24856903663720292</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.33037356712038368</v>
+        <v>0.33058815113959228</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11944,27 +11944,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>513805.50855493709</v>
+        <v>514106.22287391376</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>0.27157855604553521</v>
+        <v>0.27171848365795936</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>0.28127371287974429</v>
+        <v>0.28143833360024328</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>0.38160610634278702</v>
+        <v>0.38181106346278232</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>0.48193849980582981</v>
+        <v>0.48218379332532135</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>0.472765103070583</v>
+        <v>0.47309133489813593</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2270F6-1E57-4098-A0F9-DB4E09B16105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBBED9F9-C8B9-4CE7-9F5C-989F40C1E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4623,7 +4623,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4742,20 +4742,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.23603779878528897</v>
+        <v>0.21176566152773729</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>0.22713748065470196</v>
+        <v>0.17066227607423554</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.27769152798269292</v>
+        <v>0.24913607238557328</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.19751085274321911</v>
+        <v>0.14840197919498743</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11260,7 +11260,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.0758449603396001</v>
+        <v>1.1151430054713505</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.70738552500343577</v>
+        <v>0.55442315885096904</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11906,21 +11906,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.65351085771892203</v>
+        <v>-0.61404137561310757</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.65351085771892203</v>
+        <v>-0.61404137561310757</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.47963574157827832</v>
+        <v>0.49838196265390799</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11991,21 +11991,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-784926.32817286521</v>
+        <v>-557670.97860179655</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.42969399702074285</v>
+        <v>-0.30528708646539576</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.42969399702074285</v>
+        <v>-0.30528708646539576</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.50987467226021665</v>
+        <v>-0.40602117965598161</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12038,12 +12038,12 @@
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.70738552500343577</v>
+        <v>0.55442315885096904</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>0.70738552500343577</v>
+        <v>0.55442315885096904</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12055,23 +12055,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.23603779878528897</v>
+        <v>0.21176566152773729</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.27769152798269292</v>
+        <v>0.24913607238557328</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0.27769152798269292</v>
+        <v>0.24913607238557328</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.27769152798269292</v>
+        <v>0.24913607238557328</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.19751085274321911</v>
+        <v>0.14840197919498743</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12118,15 +12118,15 @@
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>0.15768414287113619</v>
+        <v>0.12389195856191211</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.31536828574227238</v>
+        <v>0.24778391712382422</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.374215843016176</v>
+        <v>0.3295439695638705</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12165,23 +12165,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.11801889939264448</v>
+        <v>0.10588283076386865</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.13884576399134646</v>
+        <v>0.12456803619278664</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.21768783542691456</v>
+        <v>0.18651401547374269</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.29652990686248265</v>
+        <v>0.24845999475469877</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>0.28586334787969758</v>
+        <v>0.23897297437942897</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBBED9F9-C8B9-4CE7-9F5C-989F40C1E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0640267E-B4F8-4F4C-85AB-F8E4E61FCED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2582,6 +2582,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2598,9 +2601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,11 +2814,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3058,6 +3058,7 @@
       <c r="C4" s="66" t="s">
         <v>283</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3615,19 +3616,19 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.32258064516129031</v>
+        <v>0.32051282051282048</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.193543423334187E-2</v>
+        <v>2.1794822475435831E-2</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1612903225806452E-2</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.21935483870967742</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="G45" s="87" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4307,7 +4308,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4330,6 +4331,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4348,8 +4352,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4385,24 +4389,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0806.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4412,7 +4419,7 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>VALUE PARTNERS</v>
       </c>
@@ -4441,11 +4448,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>2831.4005248000003</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>2849.66762496</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4468,11 +4475,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4540,10 +4547,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4590,7 +4597,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4680,7 +4687,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-32.606955490489064</v>
+        <v>-32.817322945266412</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4712,7 +4719,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.9354838709677417E-2</v>
+        <v>1.9230769230769228E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4731,10 +4738,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4742,22 +4749,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.21176566152773729</v>
+        <v>0.1868147381804991</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>0.17066227607423554</v>
+        <v>0.11200221221224728</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.24913607238557328</v>
-      </c>
-      <c r="G29" s="312">
+        <v>0.21978204491823422</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.14840197919498743</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>9.7393228010649813E-2</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5739,15 +5746,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5775,7 +5783,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11792,17 +11800,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0668303279393388E-2</v>
+        <v>-3.0471711591704968E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0668303279393388E-2</v>
+        <v>-3.0471711591704968E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0668303279393388E-2</v>
+        <v>-3.0471711591704968E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11843,7 +11851,7 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.32258064516129031</v>
+        <v>0.32051282051282048</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
@@ -11853,7 +11861,7 @@
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.9354838709677417E-2</v>
+        <v>1.9230769230769228E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11902,7 +11910,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11913,14 +11921,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61404137561310757</v>
+        <v>-0.67308280974161239</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.61404137561310757</v>
+        <v>-0.67308280974161239</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11948,7 +11956,7 @@
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.49838196265390799</v>
+        <v>0.54541679860568437</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11991,21 +11999,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-557670.97860179655</v>
+        <v>-611292.27458632388</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.30528708646539576</v>
+        <v>-0.33464111393273482</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.30528708646539576</v>
+        <v>-0.33464111393273482</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.40602117965598161</v>
+        <v>-0.45702993084031923</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12055,23 +12063,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.21176566152773729</v>
+        <v>0.1868147381804991</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.24913607238557328</v>
+        <v>0.21978204491823422</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0.24913607238557328</v>
+        <v>0.21978204491823422</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.24913607238557328</v>
+        <v>0.21978204491823422</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.14840197919498743</v>
+        <v>9.7393228010649813E-2</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12118,15 +12126,15 @@
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>0.12389195856191211</v>
+        <v>0.13558427165380951</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.24778391712382422</v>
+        <v>0.27116854330761903</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.3295439695638705</v>
+        <v>0.37034343789228019</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12165,23 +12173,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.10588283076386865</v>
+        <v>9.3407369090249548E-2</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.12456803619278664</v>
+        <v>0.10989102245911711</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.18651401547374269</v>
+        <v>0.17768315828602188</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.24845999475469877</v>
+        <v>0.24547529411292662</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>0.23897297437942897</v>
+        <v>0.233868332951465</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0640267E-B4F8-4F4C-85AB-F8E4E61FCED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BB7C5E-0BD8-4B26-8A50-B665A2D6E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2582,31 +2582,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4389,21 +4389,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0806.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4419,40 +4419,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>VALUE PARTNERS</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1826710016</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45636</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>2849.66762496</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4475,11 +4475,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4630,7 +4630,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4738,10 +4738,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4749,22 +4749,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.1868147381804991</v>
+        <v>0.19492113928087867</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>0.11200221221224728</v>
+        <v>0.13444665881861914</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.21978204491823422</v>
-      </c>
-      <c r="G29" s="313">
+        <v>0.22931898738926904</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.7393228010649813E-2</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>0.1169101381031471</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5747,15 +5747,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11128,7 +11128,7 @@
         <f>I15+I34</f>
         <v>109653</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11139,11 +11139,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11155,11 +11155,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.1151430054713505</v>
+        <v>1.0953177541217469</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.55442315885096904</v>
+        <v>0.62625148087478089</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11914,21 +11914,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.67308280974161239</v>
+        <v>-0.69423741193424426</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.67308280974161239</v>
+        <v>-0.69423741193424426</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.54541679860568437</v>
+        <v>0.53512591561312428</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11999,21 +11999,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-611292.27458632388</v>
+        <v>-725080.56152583926</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.33464111393273482</v>
+        <v>-0.39693249348551185</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.33464111393273482</v>
+        <v>-0.39693249348551185</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.45702993084031923</v>
+        <v>-0.50934134277163379</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12046,12 +12046,12 @@
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.55442315885096904</v>
+        <v>0.62625148087478089</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>0.55442315885096904</v>
+        <v>0.62625148087478089</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12063,23 +12063,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.1868147381804991</v>
+        <v>0.19492113928087867</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.21978204491823422</v>
+        <v>0.22931898738926904</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0.21978204491823422</v>
+        <v>0.22931898738926904</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.21978204491823422</v>
+        <v>0.22931898738926904</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>9.7393228010649813E-2</v>
+        <v>0.1169101381031471</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12126,15 +12126,15 @@
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>0.13558427165380951</v>
+        <v>0.15297998952637376</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.27116854330761903</v>
+        <v>0.30595997905274752</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.37034343789228019</v>
+        <v>0.3926059698380312</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12173,23 +12173,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>9.3407369090249548E-2</v>
+        <v>9.7460569640439337E-2</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.10989102245911711</v>
+        <v>0.11465949369463452</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.17768315828602188</v>
+        <v>0.1911494884578214</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.24547529411292662</v>
+        <v>0.26763948322100828</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>0.233868332951465</v>
+        <v>0.25475805397058915</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5441CE4-9E9F-484C-9836-9E4A1A1FF389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C7172C-5F48-438D-A1C9-DBFA6EB817B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2595,6 +2595,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2611,9 +2614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3637,19 +3637,19 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.32051282051282048</v>
+        <v>0.3401360544217687</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.1794822475435831E-2</v>
+        <v>2.3129199361687006E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.128205128205128E-2</v>
+        <v>5.4421768707482998E-2</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.21794871794871795</v>
+        <v>0.23129251700680273</v>
       </c>
       <c r="G45" s="82" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4415,27 +4415,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0806.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4445,7 +4445,7 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>VALUE PARTNERS</v>
       </c>
@@ -4474,11 +4474,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>2849.66762496</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>2685.26372352</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4501,11 +4501,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-32.817322945266412</v>
+        <v>-30.924015852270273</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.9230769230769228E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4764,10 +4764,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4775,22 +4775,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.19210953411868964</v>
+        <v>0.1947205378641638</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>0.12847096351700046</v>
+        <v>0.13301229024883257</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.22601121661022311</v>
-      </c>
-      <c r="G29" s="313">
+        <v>0.22908298572254565</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.11171388131913085</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>0.11566286108594137</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5773,15 +5773,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11928,17 +11928,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0471711591704968E-2</v>
+        <v>-3.2337326587115481E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0471711591704968E-2</v>
+        <v>-3.2337326587115481E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.0471711591704968E-2</v>
+        <v>-3.2337326587115481E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.32051282051282048</v>
+        <v>0.3401360544217687</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
@@ -11989,7 +11989,7 @@
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.9230769230769228E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12049,14 +12049,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.700022723700363</v>
+        <v>-0.69465018032435388</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.700022723700363</v>
+        <v>-0.69465018032435388</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.53958529824323365</v>
+        <v>0.54208289236696994</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12127,21 +12127,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-731122.8995385546</v>
+        <v>-725511.66813423554</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.40024026426455778</v>
+        <v>-0.39716849515223523</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.40024026426455778</v>
+        <v>-0.39716849515223523</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.51453759955565004</v>
+        <v>-0.51058861978883952</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12191,23 +12191,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.19210953411868964</v>
+        <v>0.1947205378641638</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.22601121661022311</v>
+        <v>0.22908298572254565</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>0.22601121661022311</v>
+        <v>0.22908298572254565</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.22601121661022311</v>
+        <v>0.22908298572254565</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.11171388131913085</v>
+        <v>0.11566286108594137</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12254,15 +12254,15 @@
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>0.15425482277242686</v>
+        <v>0.15496882654563701</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.30850964554485372</v>
+        <v>0.30993765309127402</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.39661130233885433</v>
+        <v>0.39844710857996951</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12301,23 +12301,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>9.605476705934482E-2</v>
+        <v>9.7360268932081898E-2</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>0.11300560830511155</v>
+        <v>0.11454149286127283</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>0.19013301969132498</v>
+        <v>0.19202590613409132</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>0.26726043107753839</v>
+        <v>0.26951031940690984</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>0.25416259182899259</v>
+        <v>0.25705498483295541</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0806.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0806.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C7172C-5F48-438D-A1C9-DBFA6EB817B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94CAF704-9442-4745-9928-5AFF9838C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,31 +2595,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3637,19 +3637,19 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.3401360544217687</v>
+        <v>0.3623188405797102</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3129199361687006E-2</v>
+        <v>2.4637625407014422E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.4421768707482998E-2</v>
+        <v>5.7971014492753631E-2</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23129251700680273</v>
+        <v>0.24637681159420294</v>
       </c>
       <c r="G45" s="82" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4415,27 +4415,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0806.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4445,40 +4445,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>VALUE PARTNERS</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1826710016</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45636</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>2685.26372352</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>2520.85982208</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4501,11 +4501,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-30.924015852270273</v>
+        <v>-29.03070875927413</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.0408163265306121E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4764,10 +4764,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4775,22 +4775,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.1947205378641638</v>
+        <v>0.19765397796332862</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>0.13301229024883257</v>
+        <v>0.13811443150836025</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.22908298572254565</v>
-      </c>
-      <c r="G29" s="314">
+        <v>0.23253409172156309</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.11566286108594137</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>0.12009950565944372</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5773,15 +5773,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11256,7 +11256,7 @@
         <f>I15+I34</f>
         <v>109653</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11267,11 +11267,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11283,11 +11283,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11928,17 +11928,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.2337326587115481E-2</v>
+        <v>-3.4446282668883881E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.2337326587115481E-2</v>
+        <v>-3.4446282668883881E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.2337326587115481E-2</v>
+        <v>-3.4446282668883881E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.3401360544217687</v>
+        <v>0.3623188405797102</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
@@ -11989,7 +11989,7 @@
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.0408163265306121E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12049,14 +12049,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.69465018032435388</v>
+        <v>-0.68861417436265993</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.69465018032435388</v>
+        <v>-0.68861417436265993</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.54208289236696994</v>
+        <v>0.54491668929856618</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12127,21 +12127,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-725511.66813423554</v>
+        <v>-719207.49823955272</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.39716849515223523</v>
+        <v>-0.3937173891532178</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.39716849515223523</v>
+        <v>-0.3937173891532178</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.51058861978883952</v>
+        <v>-0.50615197521533717</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12191,23 +12191,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.1947205378641638</v>
+        <v>0.19765397796332862</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.22908298572254565</v>
+        <v>0.23253409172156309</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>0.22908298572254565</v>
+        <v>0.23253409172156309</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.22908298572254565</v>
+        <v>0.23253409172156309</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.11566286108594137</v>
+        <v>0.12009950565944372</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12254,15 +12254,15 @@
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>0.15496882654563701</v>
+        <v>0.15577894284213289</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.30993765309127402</v>
+        <v>0.31155788568426579</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.39844710857996951</v>
+        <v>0.40053003392145575</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12301,23 +12301,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>9.7360268932081898E-2</v>
+        <v>9.882698898166431E-2</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>0.11454149286127283</v>
+        <v>0.11626704586078154</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>0.19202590613409132</v>
+        <v>0.19415651728184799</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>0.26951031940690984</v>
+        <v>0.27204598870291441</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>0.25705498483295541</v>
+        <v>0.26031476979044976</v>
       </c>
       <c r="K106" s="75"/>
     </row>
